--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7014BA-3185-4A31-9767-DF54DA8F9A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4638036E-1E8E-408E-9512-4AAC0213AD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -173,13 +173,49 @@
     <t>Sets, Arrays</t>
   </si>
   <si>
-    <t>Strings, Pointers</t>
-  </si>
-  <si>
     <t>Two Sum 2 - Input array is sorted</t>
   </si>
   <si>
     <t>Solved on my own!!! You can use pointers to save on memory.</t>
+  </si>
+  <si>
+    <t>Strings, Two Pointers</t>
+  </si>
+  <si>
+    <t>28/05/2025</t>
+  </si>
+  <si>
+    <t>Two Pointers, Arrays</t>
+  </si>
+  <si>
+    <t>Three Sum</t>
+  </si>
+  <si>
+    <t>29/05/2025</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>This is a tough one. Weird pointer positioning.</t>
+  </si>
+  <si>
+    <t>Container with Most Water</t>
+  </si>
+  <si>
+    <t>30/05/2025</t>
+  </si>
+  <si>
+    <t>STRUGGLED</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Worth revisiting later.</t>
   </si>
 </sst>
 </file>
@@ -209,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +255,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -255,6 +297,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -591,11 +647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +662,7 @@
     <col min="4" max="4" width="39.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="83.140625" style="5" customWidth="1"/>
   </cols>
@@ -657,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -897,7 +953,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>6</v>
@@ -912,24 +968,115 @@
         <v>41</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7">
         <v>167</v>
       </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
+      <c r="C12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10">
+        <v>15</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="13">
+        <v>42</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4638036E-1E8E-408E-9512-4AAC0213AD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202FD08A-561E-4196-AF10-858770992AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -215,7 +215,13 @@
     <t>Hard</t>
   </si>
   <si>
-    <t>Worth revisiting later.</t>
+    <t>31/05/2025</t>
+  </si>
+  <si>
+    <t>Worth revisiting later. Very fun / interesting problem.</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
   </si>
 </sst>
 </file>
@@ -277,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -304,13 +310,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -647,11 +646,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,28 +1055,61 @@
       </c>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="13">
+    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
         <v>42</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="14" t="s">
+      <c r="F15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>59</v>
       </c>
+      <c r="I15" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="7">
+        <v>121</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202FD08A-561E-4196-AF10-858770992AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E102C6-AD68-4851-868B-5344C4B190FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Problems" sheetId="1" r:id="rId1"/>
+    <sheet name="Leetcode" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -222,6 +222,30 @@
   </si>
   <si>
     <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>02/06/2025</t>
+  </si>
+  <si>
+    <t>Strings, Sliding Window</t>
+  </si>
+  <si>
+    <t>I need to get used to the sliding windown technique.</t>
+  </si>
+  <si>
+    <t>Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>03/06/2025</t>
+  </si>
+  <si>
+    <t>Worth revisiting later. Followed along the explanation.</t>
+  </si>
+  <si>
+    <t>Permutation in String</t>
   </si>
 </sst>
 </file>
@@ -251,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,13 +284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,11 +323,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -646,23 +664,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="83.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -912,204 +930,283 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7">
+    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10">
         <v>128</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="F10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7">
+    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10">
         <v>125</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7">
+    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10">
         <v>167</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="F12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="10">
+    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="7">
         <v>15</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="7">
+    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="10">
         <v>11</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="F14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="10">
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="7">
         <v>42</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="7">
+    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="10">
         <v>121</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="F16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="10">
+        <v>424</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="10">
+        <v>567</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E102C6-AD68-4851-868B-5344C4B190FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394BE0D8-71EE-49A5-BAC4-6E316F82A73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -246,6 +246,18 @@
   </si>
   <si>
     <t>Permutation in String</t>
+  </si>
+  <si>
+    <t>04/06/2025</t>
+  </si>
+  <si>
+    <t>Tough One!!!</t>
+  </si>
+  <si>
+    <t>05/06/2025</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
   </si>
 </sst>
 </file>
@@ -301,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -321,13 +333,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -664,27 +669,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="83.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="83.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -713,7 +718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -739,7 +744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -765,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -791,7 +796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -817,7 +822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -846,7 +851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -872,7 +877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -901,7 +906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -930,94 +935,94 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
         <v>128</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="10">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
         <v>125</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="10">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
         <v>167</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -1046,34 +1051,33 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="10">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -1102,34 +1106,33 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="10">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
         <v>121</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -1158,55 +1161,86 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="10">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
         <v>424</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="10">
+    <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="7">
         <v>567</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="11"/>
+      <c r="F19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394BE0D8-71EE-49A5-BAC4-6E316F82A73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102D4BBC-89C5-4F1D-94F1-C106D58495BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="79">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -258,6 +258,21 @@
   </si>
   <si>
     <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Another tough one.</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Arrays, Sliding Window, Queue</t>
+  </si>
+  <si>
+    <t>07/06/2025</t>
+  </si>
+  <si>
+    <t>Using a special kind of Queue called a Deque in Python. We're using a Monotonically Decreasing Queue.</t>
   </si>
 </sst>
 </file>
@@ -669,27 +684,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="83.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="83.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -718,7 +733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -744,7 +759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -770,7 +785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -796,7 +811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -822,7 +837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -851,7 +866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -877,7 +892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -906,7 +921,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -935,7 +950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -964,7 +979,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -993,7 +1008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +1037,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -1051,7 +1066,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1077,7 +1092,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1121,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1132,7 +1147,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
@@ -1161,7 +1176,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1190,7 +1205,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
@@ -1219,27 +1234,62 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1">
+    <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7">
         <v>76</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="F20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>72</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="7">
+        <v>239</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102D4BBC-89C5-4F1D-94F1-C106D58495BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8DB28-1F92-4E94-BA48-F180BB990195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="85">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -273,6 +273,24 @@
   </si>
   <si>
     <t>Using a special kind of Queue called a Deque in Python. We're using a Monotonically Decreasing Queue.</t>
+  </si>
+  <si>
+    <t>08/06/2025</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leetcode </t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Stacks</t>
+  </si>
+  <si>
+    <t>Smashed it.</t>
   </si>
 </sst>
 </file>
@@ -302,18 +320,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -328,11 +340,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -341,13 +350,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -684,60 +689,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="83.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="83.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>217</v>
       </c>
       <c r="C2" t="s">
@@ -759,11 +764,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>242</v>
       </c>
       <c r="C3" t="s">
@@ -785,11 +790,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -811,11 +816,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>49</v>
       </c>
       <c r="C5" t="s">
@@ -837,11 +842,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>347</v>
       </c>
       <c r="C6" t="s">
@@ -866,11 +871,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>238</v>
       </c>
       <c r="C7" t="s">
@@ -892,11 +897,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>36</v>
       </c>
       <c r="C8" t="s">
@@ -921,11 +926,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>271</v>
       </c>
       <c r="C9" t="s">
@@ -950,11 +955,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>128</v>
       </c>
       <c r="C10" t="s">
@@ -979,11 +984,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>125</v>
       </c>
       <c r="C11" t="s">
@@ -1008,11 +1013,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>167</v>
       </c>
       <c r="C12" t="s">
@@ -1037,40 +1042,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4">
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>11</v>
       </c>
       <c r="C14" t="s">
@@ -1092,40 +1097,40 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4">
         <v>42</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>121</v>
       </c>
       <c r="C16" t="s">
@@ -1147,40 +1152,40 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4">
         <v>3</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>424</v>
       </c>
       <c r="C18" t="s">
@@ -1205,91 +1210,149 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4">
         <v>567</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4">
         <v>76</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="7">
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4">
         <v>239</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="5" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="4">
+        <v>155</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8DB28-1F92-4E94-BA48-F180BB990195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1116C35D-F08F-420A-95FB-55107AF344AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="99">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -291,6 +291,48 @@
   </si>
   <si>
     <t>Smashed it.</t>
+  </si>
+  <si>
+    <t>09/06/2025</t>
+  </si>
+  <si>
+    <t>Made a silly mistake. It's quite simple actually.</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>Generate Parenthesis</t>
+  </si>
+  <si>
+    <t>10/06/2025</t>
+  </si>
+  <si>
+    <t>Stacks, Backtracking, Recursion</t>
+  </si>
+  <si>
+    <t>Why do I struggle with recursion so much?</t>
+  </si>
+  <si>
+    <t>Daily Temperatures</t>
+  </si>
+  <si>
+    <t>11/06/2025</t>
+  </si>
+  <si>
+    <t>Arrays, Stacks</t>
+  </si>
+  <si>
+    <t>Car Fleet</t>
+  </si>
+  <si>
+    <t>12/06/2025</t>
+  </si>
+  <si>
+    <t>Killed it. Did it simpler than Neetcode even!</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
   </si>
 </sst>
 </file>
@@ -689,11 +731,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1355,6 +1397,139 @@
         <v>84</v>
       </c>
     </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4">
+        <v>150</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>739</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4">
+        <v>853</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="4">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1116C35D-F08F-420A-95FB-55107AF344AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C426D9-677A-43C9-B35C-14F5453A93A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="102">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>13/06/2025</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>14/06/2025</t>
   </si>
 </sst>
 </file>
@@ -731,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1529,6 +1538,38 @@
       <c r="F28" t="s">
         <v>7</v>
       </c>
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="4">
+        <v>704</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C426D9-677A-43C9-B35C-14F5453A93A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660F9965-4ADB-4348-8F61-ACB5EA27AE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="105">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -342,6 +342,15 @@
   </si>
   <si>
     <t>14/06/2025</t>
+  </si>
+  <si>
+    <t>Easy one :-)</t>
+  </si>
+  <si>
+    <t>Seach a 2D Matrix</t>
+  </si>
+  <si>
+    <t>Killed it.</t>
   </si>
 </sst>
 </file>
@@ -740,11 +749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1567,8 +1576,43 @@
       <c r="F29" t="s">
         <v>7</v>
       </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
       <c r="H29" t="s">
         <v>101</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="4">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660F9965-4ADB-4348-8F61-ACB5EA27AE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95FC11F-3398-45CF-B775-7ED2B3DDA241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="107">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>Killed it.</t>
+  </si>
+  <si>
+    <t>Fun one.</t>
+  </si>
+  <si>
+    <t>Koko Eating Bananas</t>
   </si>
 </sst>
 </file>
@@ -749,11 +755,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1615,6 +1621,35 @@
         <v>104</v>
       </c>
     </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="4">
+        <v>875</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95FC11F-3398-45CF-B775-7ED2B3DDA241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4686444-8445-4D8A-B66D-926A1635A717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="113">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -357,6 +357,24 @@
   </si>
   <si>
     <t>Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Arrays, Binary Search</t>
+  </si>
+  <si>
+    <t>16/06/2025</t>
+  </si>
+  <si>
+    <t>Struggled to handle all use cases.</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Easy once you have the simple technique.</t>
   </si>
 </sst>
 </file>
@@ -755,27 +773,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="52.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="83.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="83.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,7 +822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -830,7 +848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -856,7 +874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -882,7 +900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -908,7 +926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -937,7 +955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -963,7 +981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -992,7 +1010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1050,7 +1068,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1079,7 +1097,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1137,7 +1155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1163,7 +1181,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1192,7 +1210,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1218,7 +1236,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1247,7 +1265,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1276,7 +1294,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1305,7 +1323,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1352,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1363,7 +1381,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1392,7 +1410,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -1421,7 +1439,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1450,7 +1468,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1479,7 +1497,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1505,7 +1523,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1534,7 +1552,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1563,7 +1581,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1574,7 +1592,7 @@
         <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
@@ -1592,7 +1610,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1603,7 +1621,7 @@
         <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -1621,7 +1639,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1632,7 +1650,7 @@
         <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -1648,6 +1666,64 @@
       </c>
       <c r="I31" s="5" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="4">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="4">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4686444-8445-4D8A-B66D-926A1635A717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C510645A-78C9-4544-B48C-8273BA616A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="116">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -375,6 +375,15 @@
   </si>
   <si>
     <t>Easy once you have the simple technique.</t>
+  </si>
+  <si>
+    <t>Time Based Key-Value Store</t>
+  </si>
+  <si>
+    <t>Hashmaps, Binary Search</t>
+  </si>
+  <si>
+    <t>17/06/2025</t>
   </si>
 </sst>
 </file>
@@ -773,11 +782,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,6 +1735,35 @@
         <v>112</v>
       </c>
     </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="4">
+        <v>981</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C510645A-78C9-4544-B48C-8273BA616A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA363E2-5629-42E1-AD5A-82D8C57BB31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="127">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -384,6 +384,39 @@
   </si>
   <si>
     <t>17/06/2025</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>DEFERRED</t>
+  </si>
+  <si>
+    <t>Sticking with Easy and Medium for now.</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Linked lists…I'm scared!</t>
+  </si>
+  <si>
+    <t>Linked Lists, Two Pointers, Recursion</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Linked Lists</t>
+  </si>
+  <si>
+    <t>Neetcod 150</t>
+  </si>
+  <si>
+    <t>18/06/2025</t>
+  </si>
+  <si>
+    <t>Making a bit more sense.</t>
   </si>
 </sst>
 </file>
@@ -782,11 +815,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,6 +1797,90 @@
         <v>84</v>
       </c>
     </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="4">
+        <v>206</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="4">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" t="s">
+        <v>125</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA363E2-5629-42E1-AD5A-82D8C57BB31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25585E2D-7203-47C9-A183-BEC25381D92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
+    <workbookView xWindow="-23148" yWindow="456" windowWidth="23256" windowHeight="12456" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="129">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -410,13 +410,19 @@
     <t>Linked Lists</t>
   </si>
   <si>
-    <t>Neetcod 150</t>
-  </si>
-  <si>
     <t>18/06/2025</t>
   </si>
   <si>
     <t>Making a bit more sense.</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>Using an array seemed to help a lot. Trick was to remember how saving linked list in place works.</t>
+  </si>
+  <si>
+    <t>Remove Nth Node from End of List</t>
   </si>
 </sst>
 </file>
@@ -815,11 +821,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,16 +1875,65 @@
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="G37" t="s">
         <v>56</v>
       </c>
       <c r="H37" t="s">
+        <v>124</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I37" s="5" t="s">
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="4">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
         <v>126</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="4">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25585E2D-7203-47C9-A183-BEC25381D92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F6E54D-D795-4FC1-AF5D-5272FEA3B9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="456" windowWidth="23256" windowHeight="12456" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="137">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -423,6 +423,30 @@
   </si>
   <si>
     <t>Remove Nth Node from End of List</t>
+  </si>
+  <si>
+    <t>19/06/2025</t>
+  </si>
+  <si>
+    <t>Linked Lists, Two Pointers</t>
+  </si>
+  <si>
+    <t>After looking at the solution it's not that bad. Clearly my mind still needs to get used to this data structure!</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>20/06/2025</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>I actually enjoyed this one!</t>
   </si>
 </sst>
 </file>
@@ -821,11 +845,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,7 +1940,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1927,13 +1951,77 @@
         <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="4">
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>134</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F6E54D-D795-4FC1-AF5D-5272FEA3B9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45D56EE-27B1-46F6-84EA-08CB292AD90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="155">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -447,6 +447,60 @@
   </si>
   <si>
     <t>I actually enjoyed this one!</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Hashmap for O(n) memory. Floyd's Toroise and Hare O(1) memory.</t>
+  </si>
+  <si>
+    <t>Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>Floyd's Toroise and Hare O(1) memory. Considered Hard.</t>
+  </si>
+  <si>
+    <t>23/06/2025</t>
+  </si>
+  <si>
+    <t>22/06/2025</t>
+  </si>
+  <si>
+    <t>Doubly Linked List</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>24/06/2025</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Diameter of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree, DFS, Recursion</t>
+  </si>
+  <si>
+    <t>Binary Tree, DFS, BFS</t>
   </si>
 </sst>
 </file>
@@ -476,12 +530,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -496,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -509,6 +569,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -845,11 +919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD42"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,6 +2098,765 @@
         <v>136</v>
       </c>
     </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="4">
+        <v>287</v>
+      </c>
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" t="s">
+        <v>141</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="10">
+        <v>146</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="4">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="4">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="4">
+        <v>226</v>
+      </c>
+      <c r="C47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="4">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="4">
+        <v>543</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="4">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="4">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="4">
+        <v>572</v>
+      </c>
+      <c r="C52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="7"/>
+      <c r="I152" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45D56EE-27B1-46F6-84EA-08CB292AD90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40446D4-DF9A-469A-88AE-8D286FBC27E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="161">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -500,7 +500,25 @@
     <t>Binary Tree, DFS, Recursion</t>
   </si>
   <si>
-    <t>Binary Tree, DFS, BFS</t>
+    <t>Binary Tree, DFS, BFS, Recursion</t>
+  </si>
+  <si>
+    <t>I must practice a lot more recursive problems!</t>
+  </si>
+  <si>
+    <t>25/06/2025</t>
+  </si>
+  <si>
+    <t>Feels more like a medium to me.</t>
+  </si>
+  <si>
+    <t>26/06/2025</t>
+  </si>
+  <si>
+    <t>Struggling a bit with these Binary Trees :(. It's a bit obscure for me still.</t>
+  </si>
+  <si>
+    <t>27/06/2025</t>
   </si>
 </sst>
 </file>
@@ -556,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -576,13 +594,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -921,9 +932,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,32 +2167,31 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="10">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4">
         <v>146</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" t="s">
         <v>143</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="9" t="s">
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" t="s">
         <v>145</v>
       </c>
-      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -2268,8 +2278,17 @@
       <c r="F48" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2288,8 +2307,17 @@
       <c r="F49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" t="s">
+        <v>156</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2308,8 +2336,17 @@
       <c r="F50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" t="s">
+        <v>158</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -2328,8 +2365,17 @@
       <c r="F51" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>160</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2349,7 +2395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -2357,7 +2403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2365,7 +2411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2373,47 +2419,47 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40446D4-DF9A-469A-88AE-8D286FBC27E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB46433-3951-4682-AFB4-D4E03D3E41DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="174">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -519,6 +519,45 @@
   </si>
   <si>
     <t>27/06/2025</t>
+  </si>
+  <si>
+    <t>Smashed it. Got a little clarity with this one! Also solved it with a Stack.</t>
+  </si>
+  <si>
+    <t>28/06/2025</t>
+  </si>
+  <si>
+    <t>Edge case got me. And my logic was a bit flawed but I got close on my own.</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of BST</t>
+  </si>
+  <si>
+    <t>30/06/2025</t>
+  </si>
+  <si>
+    <t>Simple in the end. Nice iterative solution.</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree, BFS</t>
+  </si>
+  <si>
+    <t>Solved with BFS. Beautiful code!</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>Annihalited it!</t>
+  </si>
+  <si>
+    <t>Count Good Nodes in Binary Tree</t>
+  </si>
+  <si>
+    <t>01/07/2025</t>
   </si>
 </sst>
 </file>
@@ -932,9 +971,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,7 +2396,7 @@
         <v>151</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
@@ -2372,7 +2411,7 @@
         <v>160</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2392,511 +2431,886 @@
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>162</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
+      <c r="B53" s="4">
+        <v>235</v>
+      </c>
+      <c r="C53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
       <c r="F53" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>165</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
+      <c r="B54" s="4">
+        <v>102</v>
+      </c>
+      <c r="C54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
       <c r="F54" t="s">
         <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>165</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
+      <c r="B55" s="4">
+        <v>199</v>
+      </c>
+      <c r="C55" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
       <c r="F55" t="s">
         <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>165</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
+      <c r="B56" s="4">
+        <v>1448</v>
+      </c>
+      <c r="C56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
+      </c>
+      <c r="F144" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
+      <c r="F145" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
+      <c r="F146" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
+      <c r="F147" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
+      <c r="F148" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
+      <c r="F149" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>5</v>
       </c>
+      <c r="F150" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
+      </c>
+      <c r="F151" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB46433-3951-4682-AFB4-D4E03D3E41DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0A1EBA-44DC-46B7-A181-E46736B78CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="179">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -558,6 +558,21 @@
   </si>
   <si>
     <t>01/07/2025</t>
+  </si>
+  <si>
+    <t>Preorder traversal</t>
+  </si>
+  <si>
+    <t>02/07/2025</t>
+  </si>
+  <si>
+    <t>Validate BST</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Inorder traversal. DFS with Stack.</t>
   </si>
 </sst>
 </file>
@@ -972,8 +987,8 @@
   <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,24 +2564,69 @@
       <c r="F56" t="s">
         <v>7</v>
       </c>
+      <c r="G56" t="s">
+        <v>56</v>
+      </c>
       <c r="H56" t="s">
         <v>173</v>
       </c>
+      <c r="I56" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
+      <c r="B57" s="4">
+        <v>98</v>
+      </c>
+      <c r="C57" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
       <c r="F57" t="s">
         <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
+      <c r="B58" s="4">
+        <v>230</v>
+      </c>
+      <c r="C58" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
       <c r="F58" t="s">
         <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>175</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0A1EBA-44DC-46B7-A181-E46736B78CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474918B3-4F2F-4DE2-9F4E-A930ABA988DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
+    <workbookView xWindow="-23148" yWindow="456" windowWidth="23256" windowHeight="12456" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="186">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -573,6 +573,27 @@
   </si>
   <si>
     <t>Inorder traversal. DFS with Stack.</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>05/07/2025</t>
+  </si>
+  <si>
+    <t>Array partitioning. Recursion.</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
   </si>
 </sst>
 </file>
@@ -987,8 +1008,8 @@
   <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,32 +2654,98 @@
       <c r="A59" t="s">
         <v>5</v>
       </c>
+      <c r="B59" s="4">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
       <c r="F59" t="s">
         <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" t="s">
+        <v>183</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
+      <c r="B60" s="4">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" t="s">
+        <v>58</v>
+      </c>
       <c r="F60" t="s">
         <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
+      <c r="B61" s="4">
+        <v>297</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" t="s">
+        <v>58</v>
+      </c>
       <c r="F61" t="s">
         <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
+      <c r="B62" s="4">
+        <v>208</v>
+      </c>
+      <c r="C62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
       <c r="F62" t="s">
         <v>7</v>
+      </c>
+      <c r="H62" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474918B3-4F2F-4DE2-9F4E-A930ABA988DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D11BB6-A69F-451E-8AEF-50A47B34A4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="456" windowWidth="23256" windowHeight="12456" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="203">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -594,6 +594,57 @@
   </si>
   <si>
     <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Pretty simple.</t>
+  </si>
+  <si>
+    <t>07/07/2025</t>
+  </si>
+  <si>
+    <t>Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>Trie, DFS</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <t>Recursion got me :-(. Definitely must revisit this one!</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in a Stream</t>
+  </si>
+  <si>
+    <t>08/07/2025</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Min Heap. Considered medium.</t>
+  </si>
+  <si>
+    <t>Last Stone Weight</t>
+  </si>
+  <si>
+    <t>09/07/2025</t>
+  </si>
+  <si>
+    <t>Max Heap - Simulated with Min Heap negative values. Priority Queue. This was lots of fun.</t>
+  </si>
+  <si>
+    <t>K Closest Points to Origin</t>
+  </si>
+  <si>
+    <t>Smashed it!</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>10/07/2025</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1059,8 @@
   <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2744,59 +2795,176 @@
       <c r="F62" t="s">
         <v>7</v>
       </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
       <c r="H62" t="s">
         <v>183</v>
       </c>
+      <c r="I62" s="5" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
+      <c r="B63" s="4">
+        <v>211</v>
+      </c>
+      <c r="C63" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
       <c r="F63" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="G63" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" t="s">
+        <v>187</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
+      <c r="B64" s="4">
+        <v>212</v>
+      </c>
+      <c r="C64" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" t="s">
+        <v>58</v>
+      </c>
       <c r="F64" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
+      <c r="B65" s="4">
+        <v>703</v>
+      </c>
+      <c r="C65" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" t="s">
+        <v>194</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
       <c r="F65" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>193</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
+      <c r="B66" s="4">
+        <v>1046</v>
+      </c>
+      <c r="C66" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" t="s">
+        <v>194</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
       <c r="F66" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>197</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
+      <c r="B67" s="4">
+        <v>973</v>
+      </c>
+      <c r="C67" t="s">
+        <v>199</v>
+      </c>
+      <c r="D67" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
       <c r="F67" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" t="s">
+        <v>197</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
+      <c r="B68" s="4">
+        <v>215</v>
+      </c>
+      <c r="C68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
       <c r="F68" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2804,7 +2972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2812,7 +2980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2820,7 +2988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -2828,7 +2996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -2836,7 +3004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2844,7 +3012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -2852,7 +3020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2860,7 +3028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2868,7 +3036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2876,7 +3044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2884,7 +3052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D11BB6-A69F-451E-8AEF-50A47B34A4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB9F084-EDE2-40DA-BF0B-D71901934784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="211">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Lintcode 659</t>
   </si>
   <si>
-    <t>Strings, Arrays, Pointers</t>
-  </si>
-  <si>
     <t>Longest Consecutive Sequence</t>
   </si>
   <si>
@@ -170,24 +167,15 @@
     <t>Valid Palindrome</t>
   </si>
   <si>
-    <t>Sets, Arrays</t>
-  </si>
-  <si>
     <t>Two Sum 2 - Input array is sorted</t>
   </si>
   <si>
     <t>Solved on my own!!! You can use pointers to save on memory.</t>
   </si>
   <si>
-    <t>Strings, Two Pointers</t>
-  </si>
-  <si>
     <t>28/05/2025</t>
   </si>
   <si>
-    <t>Two Pointers, Arrays</t>
-  </si>
-  <si>
     <t>Three Sum</t>
   </si>
   <si>
@@ -320,9 +308,6 @@
     <t>11/06/2025</t>
   </si>
   <si>
-    <t>Arrays, Stacks</t>
-  </si>
-  <si>
     <t>Car Fleet</t>
   </si>
   <si>
@@ -645,6 +630,45 @@
   </si>
   <si>
     <t>10/07/2025</t>
+  </si>
+  <si>
+    <t>Quick Select algorithm. Can also be solved with Heaps.</t>
+  </si>
+  <si>
+    <t>Task Scheduler</t>
+  </si>
+  <si>
+    <t>Heap, Queue</t>
+  </si>
+  <si>
+    <t>Max Heap and Queue. Rushed through this one.</t>
+  </si>
+  <si>
+    <t>Design Twitter</t>
+  </si>
+  <si>
+    <t>Heap, Hashmap, Hashset</t>
+  </si>
+  <si>
+    <t>13/07/2025</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Max and Min Heaps. Doesn’t seem that difficult when combining heaps.</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>14/07/2025</t>
+  </si>
+  <si>
+    <t>Sets</t>
+  </si>
+  <si>
+    <t>Pointers</t>
   </si>
 </sst>
 </file>
@@ -1059,8 +1083,8 @@
   <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G68" sqref="G68"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,7 +1146,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -1304,7 +1328,7 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -1330,25 +1354,25 @@
         <v>128</v>
       </c>
       <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1359,25 +1383,25 @@
         <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1388,25 +1412,25 @@
         <v>167</v>
       </c>
       <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
         <v>45</v>
       </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1417,25 +1441,25 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
-      </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1446,10 +1470,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -1461,7 +1485,7 @@
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1472,25 +1496,25 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
         <v>52</v>
       </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="H15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1501,10 +1525,10 @@
         <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -1516,7 +1540,7 @@
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1527,10 +1551,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -1539,13 +1563,13 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1556,25 +1580,25 @@
         <v>424</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1585,10 +1609,10 @@
         <v>567</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -1597,13 +1621,13 @@
         <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1614,25 +1638,25 @@
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1643,25 +1667,25 @@
         <v>239</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1672,10 +1696,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -1687,24 +1711,24 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B23" s="4">
         <v>155</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -1716,10 +1740,10 @@
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1730,10 +1754,10 @@
         <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
@@ -1745,10 +1769,10 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1759,10 +1783,10 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
@@ -1771,13 +1795,13 @@
         <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1788,10 +1812,10 @@
         <v>739</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
@@ -1800,10 +1824,10 @@
         <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1814,10 +1838,10 @@
         <v>853</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
@@ -1829,10 +1853,10 @@
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1843,25 +1867,25 @@
         <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" t="s">
         <v>94</v>
       </c>
-      <c r="E28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" t="s">
-        <v>99</v>
-      </c>
       <c r="I28" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1872,10 +1896,10 @@
         <v>704</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
@@ -1887,10 +1911,10 @@
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1901,10 +1925,10 @@
         <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -1916,10 +1940,10 @@
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1930,10 +1954,10 @@
         <v>875</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -1945,10 +1969,10 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1959,10 +1983,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
@@ -1971,13 +1995,13 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1988,10 +2012,10 @@
         <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -2003,10 +2027,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2017,10 +2041,10 @@
         <v>981</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
@@ -2032,10 +2056,10 @@
         <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2046,22 +2070,22 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2072,10 +2096,10 @@
         <v>206</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
@@ -2084,13 +2108,13 @@
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2101,10 +2125,10 @@
         <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
@@ -2113,13 +2137,13 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2130,10 +2154,10 @@
         <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -2142,13 +2166,13 @@
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2159,10 +2183,10 @@
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
@@ -2171,13 +2195,13 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2188,10 +2212,10 @@
         <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
@@ -2200,10 +2224,10 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2214,10 +2238,10 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -2229,10 +2253,10 @@
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2243,25 +2267,25 @@
         <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2272,10 +2296,10 @@
         <v>287</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
@@ -2284,13 +2308,13 @@
         <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2301,10 +2325,10 @@
         <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s">
         <v>21</v>
@@ -2316,7 +2340,7 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2327,16 +2351,16 @@
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2347,16 +2371,16 @@
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2367,10 +2391,10 @@
         <v>226</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -2382,7 +2406,7 @@
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2393,25 +2417,25 @@
         <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2422,10 +2446,10 @@
         <v>543</v>
       </c>
       <c r="C49" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -2434,13 +2458,13 @@
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2451,10 +2475,10 @@
         <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E50" t="s">
         <v>6</v>
@@ -2463,13 +2487,13 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2480,10 +2504,10 @@
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
@@ -2495,10 +2519,10 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2509,25 +2533,25 @@
         <v>572</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E52" t="s">
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2538,25 +2562,25 @@
         <v>235</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2567,10 +2591,10 @@
         <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
@@ -2582,10 +2606,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2596,10 +2620,10 @@
         <v>199</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
@@ -2611,10 +2635,10 @@
         <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2625,10 +2649,10 @@
         <v>1448</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
@@ -2637,13 +2661,13 @@
         <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2654,10 +2678,10 @@
         <v>98</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
@@ -2666,10 +2690,10 @@
         <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H57" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2680,10 +2704,10 @@
         <v>230</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
@@ -2695,10 +2719,10 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2709,25 +2733,25 @@
         <v>105</v>
       </c>
       <c r="C59" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="D59" t="s">
-        <v>147</v>
-      </c>
-      <c r="E59" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" t="s">
-        <v>56</v>
-      </c>
-      <c r="H59" t="s">
-        <v>183</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2738,19 +2762,19 @@
         <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F60" t="s">
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2761,19 +2785,19 @@
         <v>297</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E61" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F61" t="s">
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2784,10 +2808,10 @@
         <v>208</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D62" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E62" t="s">
         <v>21</v>
@@ -2799,10 +2823,10 @@
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2813,25 +2837,25 @@
         <v>211</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E63" t="s">
         <v>21</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2842,16 +2866,16 @@
         <v>212</v>
       </c>
       <c r="C64" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E64" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2862,10 +2886,10 @@
         <v>703</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D65" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
@@ -2877,10 +2901,10 @@
         <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2891,10 +2915,10 @@
         <v>1046</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E66" t="s">
         <v>6</v>
@@ -2906,10 +2930,10 @@
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2920,10 +2944,10 @@
         <v>973</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D67" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
@@ -2935,13 +2959,13 @@
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2949,10 +2973,10 @@
         <v>215</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D68" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E68" t="s">
         <v>21</v>
@@ -2960,46 +2984,115 @@
       <c r="F68" t="s">
         <v>7</v>
       </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
       <c r="H68" t="s">
-        <v>202</v>
+        <v>197</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
+      <c r="B69" s="4">
+        <v>621</v>
+      </c>
+      <c r="C69" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" t="s">
+        <v>200</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
       <c r="F69" t="s">
         <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" t="s">
+        <v>204</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
+      <c r="B70" s="4">
+        <v>355</v>
+      </c>
+      <c r="C70" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
       <c r="F70" t="s">
         <v>7</v>
+      </c>
+      <c r="H70" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
+      <c r="B71" s="4">
+        <v>295</v>
+      </c>
+      <c r="C71" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" t="s">
+        <v>189</v>
+      </c>
+      <c r="E71" t="s">
+        <v>54</v>
+      </c>
       <c r="F71" t="s">
         <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>112</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
+      <c r="D72" t="s">
+        <v>207</v>
+      </c>
       <c r="F72" t="s">
         <v>7</v>
+      </c>
+      <c r="H72" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
+      <c r="D73" t="s">
+        <v>207</v>
+      </c>
       <c r="F73" t="s">
         <v>7</v>
       </c>
@@ -3008,6 +3101,9 @@
       <c r="A74" t="s">
         <v>5</v>
       </c>
+      <c r="D74" t="s">
+        <v>207</v>
+      </c>
       <c r="F74" t="s">
         <v>7</v>
       </c>
@@ -3016,6 +3112,9 @@
       <c r="A75" t="s">
         <v>5</v>
       </c>
+      <c r="D75" t="s">
+        <v>207</v>
+      </c>
       <c r="F75" t="s">
         <v>7</v>
       </c>
@@ -3024,6 +3123,9 @@
       <c r="A76" t="s">
         <v>5</v>
       </c>
+      <c r="D76" t="s">
+        <v>207</v>
+      </c>
       <c r="F76" t="s">
         <v>7</v>
       </c>
@@ -3031,6 +3133,9 @@
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>207</v>
       </c>
       <c r="F77" t="s">
         <v>7</v>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB9F084-EDE2-40DA-BF0B-D71901934784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE23758-8A3D-4D62-9DA5-2DBC68D3F34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="212">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>Pointers</t>
+  </si>
+  <si>
+    <t>Min heap to maintain most recent times.</t>
   </si>
 </sst>
 </file>
@@ -1082,9 +1085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3043,7 +3046,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>204</v>
+        <v>208</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE23758-8A3D-4D62-9DA5-2DBC68D3F34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA55374F-7CC0-4C19-820F-9245AC5F4275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="222">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -672,6 +672,36 @@
   </si>
   <si>
     <t>Min heap to maintain most recent times.</t>
+  </si>
+  <si>
+    <t>Subsets</t>
+  </si>
+  <si>
+    <t>Brute force with backtracking. There's no other way. DFS. How do I get better at this??? O(n * 2^n)</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>Recursion getting me. When will I get better at this?</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>15/07/2025</t>
+  </si>
+  <si>
+    <t>3*2*1 permutations for 3 numbers.</t>
+  </si>
+  <si>
+    <t>Subsets II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using a sort to ensure we're not duplicating sets. </t>
+  </si>
+  <si>
+    <t>Combination Sum II</t>
   </si>
 </sst>
 </file>
@@ -1085,9 +1115,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1130,7 @@
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="83.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="92.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1236,7 +1266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2149,7 +2179,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -3045,6 +3075,9 @@
       <c r="F70" t="s">
         <v>7</v>
       </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
       <c r="H70" t="s">
         <v>208</v>
       </c>
@@ -3082,55 +3115,133 @@
       <c r="A72" t="s">
         <v>5</v>
       </c>
+      <c r="B72" s="4">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>212</v>
+      </c>
       <c r="D72" t="s">
         <v>207</v>
       </c>
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
       <c r="F72" t="s">
         <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>52</v>
       </c>
       <c r="H72" t="s">
         <v>208</v>
       </c>
+      <c r="I72" s="5" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
+      <c r="B73" s="4">
+        <v>39</v>
+      </c>
+      <c r="C73" t="s">
+        <v>214</v>
+      </c>
       <c r="D73" t="s">
         <v>207</v>
       </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
       <c r="F73" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="G73" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" t="s">
+        <v>208</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
+      <c r="B74" s="4">
+        <v>46</v>
+      </c>
+      <c r="C74" t="s">
+        <v>216</v>
+      </c>
       <c r="D74" t="s">
         <v>207</v>
       </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
       <c r="F74" t="s">
         <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" t="s">
+        <v>217</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
+      <c r="B75" s="4">
+        <v>90</v>
+      </c>
+      <c r="C75" t="s">
+        <v>219</v>
+      </c>
       <c r="D75" t="s">
         <v>207</v>
       </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
       <c r="F75" t="s">
         <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" t="s">
+        <v>217</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
+      <c r="B76" s="4">
+        <v>40</v>
+      </c>
+      <c r="C76" t="s">
+        <v>221</v>
+      </c>
       <c r="D76" t="s">
         <v>207</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
       </c>
       <c r="F76" t="s">
         <v>7</v>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA55374F-7CC0-4C19-820F-9245AC5F4275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAC272D-43F5-48C4-9A60-4873AC8E3882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="226">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -702,6 +702,18 @@
   </si>
   <si>
     <t>Combination Sum II</t>
+  </si>
+  <si>
+    <t>16/07/2025</t>
+  </si>
+  <si>
+    <t>Similar to Subsets II and Combination I.</t>
+  </si>
+  <si>
+    <t>Word Search</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1129,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,22 +3258,58 @@
       <c r="F76" t="s">
         <v>7</v>
       </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" t="s">
+        <v>222</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
+      <c r="B77" s="4">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>224</v>
+      </c>
       <c r="D77" t="s">
         <v>207</v>
       </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
       <c r="F77" t="s">
         <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
+      <c r="B78" s="4">
+        <v>131</v>
+      </c>
+      <c r="C78" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" t="s">
+        <v>207</v>
+      </c>
+      <c r="E78" t="s">
+        <v>21</v>
+      </c>
       <c r="F78" t="s">
         <v>7</v>
       </c>
@@ -3270,6 +3318,9 @@
       <c r="A79" t="s">
         <v>5</v>
       </c>
+      <c r="D79" t="s">
+        <v>207</v>
+      </c>
       <c r="F79" t="s">
         <v>7</v>
       </c>
@@ -3278,6 +3329,9 @@
       <c r="A80" t="s">
         <v>5</v>
       </c>
+      <c r="D80" t="s">
+        <v>207</v>
+      </c>
       <c r="F80" t="s">
         <v>7</v>
       </c>
@@ -3285,6 +3339,9 @@
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>207</v>
       </c>
       <c r="F81" t="s">
         <v>7</v>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAC272D-43F5-48C4-9A60-4873AC8E3882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8375BBE7-AE7A-461E-9E9C-DF80F28BCBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="241">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -714,6 +714,51 @@
   </si>
   <si>
     <t>Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>17/07/2025</t>
+  </si>
+  <si>
+    <t>Recursion, recursion, recursion, sigh *</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>N-Queens</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>Rotting Oranges</t>
+  </si>
+  <si>
+    <t>Walls and Gates</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Max Area of Island</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>Surrounded Regions</t>
+  </si>
+  <si>
+    <t>18/07/2025</t>
+  </si>
+  <si>
+    <t>Easy in the end. Why do I struggle so much with this darn recursion lol</t>
   </si>
 </sst>
 </file>
@@ -1127,25 +1172,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="92.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="92.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1200,7 +1245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1226,7 +1271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1252,7 +1297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1278,7 +1323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1307,7 +1352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1362,7 +1407,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1391,7 +1436,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1420,7 +1465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +1494,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1478,7 +1523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1507,7 +1552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1533,7 +1578,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1562,7 +1607,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1588,7 +1633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1617,7 +1662,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1646,7 +1691,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1675,7 +1720,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1704,7 +1749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1733,7 +1778,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1762,7 +1807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1791,7 +1836,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1820,7 +1865,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1849,7 +1894,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1875,7 +1920,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1904,7 +1949,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1933,7 +1978,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1962,7 +2007,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1991,7 +2036,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2020,7 +2065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2049,7 +2094,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2078,7 +2123,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2107,7 +2152,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2133,7 +2178,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2162,7 +2207,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2191,7 +2236,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2220,7 +2265,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2249,7 +2294,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2275,7 +2320,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2304,7 +2349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2333,7 +2378,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2362,7 +2407,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2388,7 +2433,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2408,7 +2453,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2428,7 +2473,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2454,7 +2499,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2483,7 +2528,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2512,7 +2557,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2541,7 +2586,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -2570,7 +2615,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2599,7 +2644,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -2628,7 +2673,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2657,7 +2702,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2686,7 +2731,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2715,7 +2760,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2741,7 +2786,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2770,7 +2815,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2799,7 +2844,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2822,7 +2867,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -2845,7 +2890,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -2874,7 +2919,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2903,7 +2948,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -2923,7 +2968,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -2952,7 +2997,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2981,7 +3026,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -3010,7 +3055,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -3039,7 +3084,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -3068,7 +3113,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -3097,7 +3142,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -3123,7 +3168,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -3152,7 +3197,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -3181,7 +3226,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -3210,7 +3255,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -3239,7 +3284,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -3268,7 +3313,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -3294,7 +3339,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -3313,97 +3358,229 @@
       <c r="F78" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>226</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
+      </c>
+      <c r="B79" s="4">
+        <v>17</v>
+      </c>
+      <c r="C79" t="s">
+        <v>228</v>
       </c>
       <c r="D79" t="s">
         <v>207</v>
       </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
       <c r="F79" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>52</v>
+      </c>
+      <c r="H79" t="s">
+        <v>239</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5</v>
+      </c>
+      <c r="B80" s="4">
+        <v>51</v>
+      </c>
+      <c r="C80" t="s">
+        <v>229</v>
       </c>
       <c r="D80" t="s">
         <v>207</v>
       </c>
+      <c r="E80" t="s">
+        <v>54</v>
+      </c>
       <c r="F80" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>5</v>
       </c>
+      <c r="B81" s="4">
+        <v>200</v>
+      </c>
+      <c r="C81" t="s">
+        <v>230</v>
+      </c>
       <c r="D81" t="s">
+        <v>231</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="4">
+        <v>133</v>
+      </c>
+      <c r="C82" t="s">
+        <v>235</v>
+      </c>
+      <c r="D82" t="s">
+        <v>231</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="4">
+        <v>695</v>
+      </c>
+      <c r="C83" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83" t="s">
+        <v>231</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="4">
+        <v>417</v>
+      </c>
+      <c r="C84" t="s">
+        <v>237</v>
+      </c>
+      <c r="D84" t="s">
+        <v>231</v>
+      </c>
+      <c r="E84" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="4">
+        <v>130</v>
+      </c>
+      <c r="C85" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85" t="s">
+        <v>231</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="4">
+        <v>994</v>
+      </c>
+      <c r="C86" t="s">
+        <v>232</v>
+      </c>
+      <c r="D86" t="s">
+        <v>231</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="4">
+        <v>286</v>
+      </c>
+      <c r="C87" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" t="s">
+        <v>231</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="4">
         <v>207</v>
       </c>
-      <c r="F81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>5</v>
+      <c r="C88" t="s">
+        <v>234</v>
+      </c>
+      <c r="D88" t="s">
+        <v>231</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
       </c>
       <c r="F88" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -3411,7 +3588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -3419,7 +3596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -3427,7 +3604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -3435,7 +3612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -3443,7 +3620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -3451,7 +3628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -3459,7 +3636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -3467,7 +3644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -3475,7 +3652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -3483,7 +3660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -3491,7 +3668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -3499,7 +3676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -3507,7 +3684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -3515,7 +3692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -3523,7 +3700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -3531,7 +3708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -3539,7 +3716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -3547,7 +3724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -3555,7 +3732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -3563,7 +3740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -3571,7 +3748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -3579,7 +3756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -3587,7 +3764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -3595,7 +3772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3603,7 +3780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -3611,7 +3788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -3619,7 +3796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -3627,7 +3804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -3635,7 +3812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3643,7 +3820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -3651,7 +3828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -3659,7 +3836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -3667,7 +3844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -3675,7 +3852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -3683,7 +3860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3691,7 +3868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -3699,7 +3876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3707,7 +3884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -3715,7 +3892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -3723,7 +3900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -3731,7 +3908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -3739,7 +3916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -3747,7 +3924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -3755,7 +3932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -3763,7 +3940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -3771,7 +3948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -3779,7 +3956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3787,7 +3964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -3795,7 +3972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -3803,7 +3980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -3811,7 +3988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -3819,7 +3996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -3827,7 +4004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -3835,7 +4012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -3843,7 +4020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -3851,7 +4028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -3859,7 +4036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -3867,7 +4044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -3875,7 +4052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -3883,7 +4060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -3891,7 +4068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -3899,7 +4076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -3907,7 +4084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B152" s="7"/>
       <c r="I152" s="8"/>
     </row>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8375BBE7-AE7A-461E-9E9C-DF80F28BCBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9D92E7-918A-4CD0-898E-8AA84B277C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="245">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -759,6 +759,18 @@
   </si>
   <si>
     <t>Easy in the end. Why do I struggle so much with this darn recursion lol</t>
+  </si>
+  <si>
+    <t>21/07/2025</t>
+  </si>
+  <si>
+    <t>Beautiful code. Done using an Iterative BFS with a queue.</t>
+  </si>
+  <si>
+    <t>22/07/2025</t>
+  </si>
+  <si>
+    <t>I need lots of graph algorithm practice!</t>
   </si>
 </sst>
 </file>
@@ -1172,25 +1184,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
+      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="52.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="92.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="92.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +1231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1245,7 +1257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1271,7 +1283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1297,7 +1309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1323,7 +1335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1352,7 +1364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1378,7 +1390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1407,7 +1419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1436,7 +1448,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1465,7 +1477,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1494,7 +1506,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1523,7 +1535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1552,7 +1564,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1578,7 +1590,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1607,7 +1619,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1633,7 +1645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1662,7 +1674,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1691,7 +1703,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1720,7 +1732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1749,7 +1761,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1778,7 +1790,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1807,7 +1819,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1836,7 +1848,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1865,7 +1877,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1894,7 +1906,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1920,7 +1932,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1949,7 +1961,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1978,7 +1990,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2007,7 +2019,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2036,7 +2048,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2094,7 +2106,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2123,7 +2135,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2152,7 +2164,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2178,7 +2190,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2207,7 +2219,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +2248,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2265,7 +2277,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2294,7 +2306,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2320,7 +2332,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2349,7 +2361,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2378,7 +2390,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2407,7 +2419,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2433,7 +2445,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2453,7 +2465,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2473,7 +2485,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2499,7 +2511,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2528,7 +2540,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2557,7 +2569,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2586,7 +2598,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -2615,7 +2627,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2644,7 +2656,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -2673,7 +2685,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2702,7 +2714,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2731,7 +2743,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2760,7 +2772,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2786,7 +2798,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2815,7 +2827,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2844,7 +2856,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2867,7 +2879,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -2890,7 +2902,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -2919,7 +2931,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2948,7 +2960,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -2968,7 +2980,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -2997,7 +3009,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -3026,7 +3038,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -3055,7 +3067,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -3084,7 +3096,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -3113,7 +3125,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -3142,7 +3154,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -3168,7 +3180,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -3197,7 +3209,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -3226,7 +3238,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -3255,7 +3267,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -3284,7 +3296,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -3313,7 +3325,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -3339,7 +3351,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -3368,7 +3380,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -3397,7 +3409,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -3420,7 +3432,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -3439,8 +3451,17 @@
       <c r="F81" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
+        <v>241</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -3459,8 +3480,17 @@
       <c r="F82" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>243</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -3480,7 +3510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -3500,7 +3530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -3520,7 +3550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -3540,7 +3570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -3560,7 +3590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -3580,7 +3610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -3588,7 +3618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -3596,7 +3626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -3604,7 +3634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -3612,7 +3642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -3620,7 +3650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -3628,7 +3658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -3636,7 +3666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -3644,7 +3674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -3652,7 +3682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -3660,7 +3690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -3668,7 +3698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -3676,7 +3706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -3684,7 +3714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -3692,7 +3722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -3700,7 +3730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -3708,7 +3738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -3716,7 +3746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -3724,7 +3754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -3732,7 +3762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -3740,7 +3770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -3748,7 +3778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -3756,7 +3786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -3764,7 +3794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -3772,7 +3802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3780,7 +3810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -3788,7 +3818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -3796,7 +3826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -3804,7 +3834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -3812,7 +3842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3820,7 +3850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -3828,7 +3858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -3836,7 +3866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -3844,7 +3874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -3852,7 +3882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -3860,7 +3890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3868,7 +3898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -3876,7 +3906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3884,7 +3914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -3892,7 +3922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -3900,7 +3930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -3908,7 +3938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -3916,7 +3946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -3924,7 +3954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -3932,7 +3962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -3940,7 +3970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -3948,7 +3978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -3956,7 +3986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3964,7 +3994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -3972,7 +4002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -3980,7 +4010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -3988,7 +4018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -3996,7 +4026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -4004,7 +4034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -4012,7 +4042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -4020,7 +4050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -4028,7 +4058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -4036,7 +4066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -4044,7 +4074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -4052,7 +4082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -4060,7 +4090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -4068,7 +4098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -4076,7 +4106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -4084,7 +4114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
       <c r="I152" s="8"/>
     </row>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9D92E7-918A-4CD0-898E-8AA84B277C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB67EFC-0172-4B77-9F5B-CEA95F00934D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="251">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -771,6 +771,24 @@
   </si>
   <si>
     <t>I need lots of graph algorithm practice!</t>
+  </si>
+  <si>
+    <t>Very similar to 200 - Number of Islands.</t>
+  </si>
+  <si>
+    <t>23/07/2025</t>
+  </si>
+  <si>
+    <t>Had an iterative solution but didn't work in a weird scenario. I still don't fully understand why it didn't work. DFS solution seems to work though.</t>
+  </si>
+  <si>
+    <t>24/07/2025</t>
+  </si>
+  <si>
+    <t>Introduced to the concept of Reverse Thinking. Don't always approach the problem the usual way.</t>
+  </si>
+  <si>
+    <t>25/07/2025</t>
   </si>
 </sst>
 </file>
@@ -1184,9 +1202,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3509,8 +3527,17 @@
       <c r="F83" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" t="s">
+        <v>243</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -3529,6 +3556,15 @@
       <c r="F84" t="s">
         <v>7</v>
       </c>
+      <c r="G84" t="s">
+        <v>52</v>
+      </c>
+      <c r="H84" t="s">
+        <v>246</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -3549,6 +3585,15 @@
       <c r="F85" t="s">
         <v>7</v>
       </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>248</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -3568,6 +3613,9 @@
       </c>
       <c r="F86" t="s">
         <v>7</v>
+      </c>
+      <c r="H86" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB67EFC-0172-4B77-9F5B-CEA95F00934D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21DBEAB-DA9D-469D-A749-8C78EE27205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="261">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -789,6 +789,36 @@
   </si>
   <si>
     <t>25/07/2025</t>
+  </si>
+  <si>
+    <t>Graphs, BFS</t>
+  </si>
+  <si>
+    <t>Similar to Rotting Oranges above. Reverse thinking.</t>
+  </si>
+  <si>
+    <t>26/07/2025</t>
+  </si>
+  <si>
+    <t>Cycle detection.</t>
+  </si>
+  <si>
+    <t>Graphs, DFS, BFS</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>Topological Sort</t>
+  </si>
+  <si>
+    <t>Redundant Connection</t>
+  </si>
+  <si>
+    <t>Union Find</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in Undirected Graph</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1234,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3606,13 +3636,16 @@
         <v>232</v>
       </c>
       <c r="D86" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="E86" t="s">
         <v>21</v>
       </c>
       <c r="F86" t="s">
         <v>7</v>
+      </c>
+      <c r="G86" t="s">
+        <v>52</v>
       </c>
       <c r="H86" t="s">
         <v>250</v>
@@ -3629,13 +3662,22 @@
         <v>233</v>
       </c>
       <c r="D87" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="E87" t="s">
         <v>21</v>
       </c>
       <c r="F87" t="s">
         <v>7</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>250</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3649,19 +3691,40 @@
         <v>234</v>
       </c>
       <c r="D88" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="E88" t="s">
         <v>21</v>
       </c>
       <c r="F88" t="s">
         <v>7</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>253</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
+      <c r="B89" s="4">
+        <v>210</v>
+      </c>
+      <c r="C89" t="s">
+        <v>256</v>
+      </c>
+      <c r="D89" t="s">
+        <v>257</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
       <c r="F89" t="s">
         <v>7</v>
       </c>
@@ -3670,6 +3733,15 @@
       <c r="A90" t="s">
         <v>5</v>
       </c>
+      <c r="B90" s="4">
+        <v>684</v>
+      </c>
+      <c r="C90" t="s">
+        <v>258</v>
+      </c>
+      <c r="D90" t="s">
+        <v>259</v>
+      </c>
       <c r="F90" t="s">
         <v>7</v>
       </c>
@@ -3677,6 +3749,15 @@
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
+      </c>
+      <c r="B91" s="4">
+        <v>323</v>
+      </c>
+      <c r="C91" t="s">
+        <v>260</v>
+      </c>
+      <c r="D91" t="s">
+        <v>259</v>
       </c>
       <c r="F91" t="s">
         <v>7</v>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21DBEAB-DA9D-469D-A749-8C78EE27205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4816CCE-FCAF-46FF-AFA6-72BDC26D347B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="258">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -218,9 +218,6 @@
     <t>02/06/2025</t>
   </si>
   <si>
-    <t>Strings, Sliding Window</t>
-  </si>
-  <si>
     <t>I need to get used to the sliding windown technique.</t>
   </si>
   <si>
@@ -254,9 +251,6 @@
     <t>Sliding Window Maximum</t>
   </si>
   <si>
-    <t>Arrays, Sliding Window, Queue</t>
-  </si>
-  <si>
     <t>07/06/2025</t>
   </si>
   <si>
@@ -347,9 +341,6 @@
     <t>Search in Rotated Sorted Array</t>
   </si>
   <si>
-    <t>Arrays, Binary Search</t>
-  </si>
-  <si>
     <t>16/06/2025</t>
   </si>
   <si>
@@ -365,9 +356,6 @@
     <t>Time Based Key-Value Store</t>
   </si>
   <si>
-    <t>Hashmaps, Binary Search</t>
-  </si>
-  <si>
     <t>17/06/2025</t>
   </si>
   <si>
@@ -386,9 +374,6 @@
     <t>Linked lists…I'm scared!</t>
   </si>
   <si>
-    <t>Linked Lists, Two Pointers, Recursion</t>
-  </si>
-  <si>
     <t>Merge Two Sorted Lists</t>
   </si>
   <si>
@@ -482,12 +467,6 @@
     <t>Subtree of Another Tree</t>
   </si>
   <si>
-    <t>Binary Tree, DFS, Recursion</t>
-  </si>
-  <si>
-    <t>Binary Tree, DFS, BFS, Recursion</t>
-  </si>
-  <si>
     <t>I must practice a lot more recursive problems!</t>
   </si>
   <si>
@@ -527,9 +506,6 @@
     <t>Binary Tree Level Order Traversal</t>
   </si>
   <si>
-    <t>Binary Tree, BFS</t>
-  </si>
-  <si>
     <t>Solved with BFS. Beautiful code!</t>
   </si>
   <si>
@@ -590,9 +566,6 @@
     <t>Design Add and Search Words Data Structure</t>
   </si>
   <si>
-    <t>Trie, DFS</t>
-  </si>
-  <si>
     <t>Word Search II</t>
   </si>
   <si>
@@ -638,18 +611,12 @@
     <t>Task Scheduler</t>
   </si>
   <si>
-    <t>Heap, Queue</t>
-  </si>
-  <si>
     <t>Max Heap and Queue. Rushed through this one.</t>
   </si>
   <si>
     <t>Design Twitter</t>
   </si>
   <si>
-    <t>Heap, Hashmap, Hashset</t>
-  </si>
-  <si>
     <t>13/07/2025</t>
   </si>
   <si>
@@ -791,34 +758,58 @@
     <t>25/07/2025</t>
   </si>
   <si>
-    <t>Graphs, BFS</t>
-  </si>
-  <si>
     <t>Similar to Rotting Oranges above. Reverse thinking.</t>
   </si>
   <si>
     <t>26/07/2025</t>
   </si>
   <si>
-    <t>Cycle detection.</t>
-  </si>
-  <si>
-    <t>Graphs, DFS, BFS</t>
-  </si>
-  <si>
     <t>Course Schedule II</t>
   </si>
   <si>
-    <t>Topological Sort</t>
-  </si>
-  <si>
     <t>Redundant Connection</t>
   </si>
   <si>
-    <t>Union Find</t>
-  </si>
-  <si>
     <t>Number of Connected Components in Undirected Graph</t>
+  </si>
+  <si>
+    <t>28/07/2025</t>
+  </si>
+  <si>
+    <t>Cycle detection. Directed Graph.</t>
+  </si>
+  <si>
+    <t>Undirected Graph. Need to get comfortable with Union Find algorithm.</t>
+  </si>
+  <si>
+    <t>29/07/2025</t>
+  </si>
+  <si>
+    <t>Number of Provinces</t>
+  </si>
+  <si>
+    <t>Graphs, Union Find</t>
+  </si>
+  <si>
+    <t>Can use DFS. More efficient to use Union Find. Battling a bit with this algorithm.</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>30/07/2025</t>
+  </si>
+  <si>
+    <t>Can use DFS. Can also use Union Find.</t>
+  </si>
+  <si>
+    <t>Leetcode (Premium), Lintcode</t>
+  </si>
+  <si>
+    <t>Directed Graph. Topolotical Sort.</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
   </si>
 </sst>
 </file>
@@ -1230,16 +1221,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="52.28515625" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" customWidth="1"/>
@@ -1478,7 +1469,7 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -1507,7 +1498,7 @@
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -1704,7 +1695,7 @@
         <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>257</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -1719,7 +1710,7 @@
         <v>59</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1730,25 +1721,25 @@
         <v>424</v>
       </c>
       <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
         <v>62</v>
       </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1759,10 +1750,10 @@
         <v>567</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>257</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -1774,10 +1765,10 @@
         <v>52</v>
       </c>
       <c r="H19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1788,10 +1779,10 @@
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>257</v>
       </c>
       <c r="E20" t="s">
         <v>54</v>
@@ -1803,10 +1794,10 @@
         <v>52</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1817,10 +1808,10 @@
         <v>239</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>257</v>
       </c>
       <c r="E21" t="s">
         <v>54</v>
@@ -1832,10 +1823,10 @@
         <v>52</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1846,10 +1837,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -1861,39 +1852,39 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="4">
         <v>155</v>
       </c>
       <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1904,25 +1895,25 @@
         <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
         <v>79</v>
       </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>81</v>
-      </c>
       <c r="I24" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1933,10 +1924,10 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
         <v>84</v>
-      </c>
-      <c r="D25" t="s">
-        <v>86</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
@@ -1948,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="H25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1962,10 +1953,10 @@
         <v>739</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
@@ -1977,7 +1968,7 @@
         <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1988,25 +1979,25 @@
         <v>853</v>
       </c>
       <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2017,10 +2008,10 @@
         <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
         <v>54</v>
@@ -2032,10 +2023,10 @@
         <v>52</v>
       </c>
       <c r="H28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2046,10 +2037,10 @@
         <v>704</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
@@ -2061,10 +2052,10 @@
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2075,10 +2066,10 @@
         <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -2090,10 +2081,10 @@
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2104,10 +2095,10 @@
         <v>875</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -2119,10 +2110,10 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2133,10 +2124,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
@@ -2148,10 +2139,10 @@
         <v>52</v>
       </c>
       <c r="H32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2162,10 +2153,10 @@
         <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -2177,10 +2168,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2191,10 +2182,10 @@
         <v>981</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
@@ -2206,10 +2197,10 @@
         <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2220,10 +2211,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
         <v>54</v>
@@ -2232,10 +2223,10 @@
         <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2246,10 +2237,10 @@
         <v>206</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
@@ -2261,10 +2252,10 @@
         <v>52</v>
       </c>
       <c r="H36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2275,10 +2266,10 @@
         <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
@@ -2290,10 +2281,10 @@
         <v>52</v>
       </c>
       <c r="H37" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2304,10 +2295,10 @@
         <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -2319,10 +2310,10 @@
         <v>52</v>
       </c>
       <c r="H38" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2333,10 +2324,10 @@
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
@@ -2348,10 +2339,10 @@
         <v>52</v>
       </c>
       <c r="H39" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2362,10 +2353,10 @@
         <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
@@ -2377,7 +2368,7 @@
         <v>52</v>
       </c>
       <c r="H40" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2388,10 +2379,10 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -2403,10 +2394,10 @@
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2417,10 +2408,10 @@
         <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -2432,10 +2423,10 @@
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2446,10 +2437,10 @@
         <v>287</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
@@ -2461,10 +2452,10 @@
         <v>52</v>
       </c>
       <c r="H43" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2475,10 +2466,10 @@
         <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E44" t="s">
         <v>21</v>
@@ -2490,7 +2481,7 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2501,7 +2492,7 @@
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E45" t="s">
         <v>54</v>
@@ -2510,7 +2501,7 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2521,7 +2512,7 @@
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E46" t="s">
         <v>54</v>
@@ -2530,7 +2521,7 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2541,10 +2532,10 @@
         <v>226</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -2556,7 +2547,7 @@
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2567,10 +2558,10 @@
         <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
@@ -2582,10 +2573,10 @@
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2596,10 +2587,10 @@
         <v>543</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -2611,10 +2602,10 @@
         <v>52</v>
       </c>
       <c r="H49" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2625,10 +2616,10 @@
         <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E50" t="s">
         <v>6</v>
@@ -2640,10 +2631,10 @@
         <v>52</v>
       </c>
       <c r="H50" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2654,10 +2645,10 @@
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
@@ -2669,10 +2660,10 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2683,10 +2674,10 @@
         <v>572</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E52" t="s">
         <v>6</v>
@@ -2698,10 +2689,10 @@
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2712,10 +2703,10 @@
         <v>235</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -2727,10 +2718,10 @@
         <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2741,10 +2732,10 @@
         <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
@@ -2756,10 +2747,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2770,10 +2761,10 @@
         <v>199</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
@@ -2785,10 +2776,10 @@
         <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2799,10 +2790,10 @@
         <v>1448</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
@@ -2814,10 +2805,10 @@
         <v>52</v>
       </c>
       <c r="H56" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2828,10 +2819,10 @@
         <v>98</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
@@ -2843,7 +2834,7 @@
         <v>52</v>
       </c>
       <c r="H57" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2854,10 +2845,10 @@
         <v>230</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
@@ -2869,10 +2860,10 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2883,10 +2874,10 @@
         <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
@@ -2898,10 +2889,10 @@
         <v>52</v>
       </c>
       <c r="H59" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2912,10 +2903,10 @@
         <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D60" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E60" t="s">
         <v>54</v>
@@ -2924,7 +2915,7 @@
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2935,10 +2926,10 @@
         <v>297</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E61" t="s">
         <v>54</v>
@@ -2947,7 +2938,7 @@
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2958,10 +2949,10 @@
         <v>208</v>
       </c>
       <c r="C62" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E62" t="s">
         <v>21</v>
@@ -2973,10 +2964,10 @@
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2987,10 +2978,10 @@
         <v>211</v>
       </c>
       <c r="C63" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D63" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="E63" t="s">
         <v>21</v>
@@ -3002,10 +2993,10 @@
         <v>52</v>
       </c>
       <c r="H63" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3016,7 +3007,7 @@
         <v>212</v>
       </c>
       <c r="C64" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E64" t="s">
         <v>54</v>
@@ -3025,7 +3016,7 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3036,10 +3027,10 @@
         <v>703</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
@@ -3051,10 +3042,10 @@
         <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3065,10 +3056,10 @@
         <v>1046</v>
       </c>
       <c r="C66" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E66" t="s">
         <v>6</v>
@@ -3080,10 +3071,10 @@
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3094,10 +3085,10 @@
         <v>973</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D67" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
@@ -3109,10 +3100,10 @@
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3123,25 +3114,25 @@
         <v>215</v>
       </c>
       <c r="C68" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D68" t="s">
+        <v>180</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" t="s">
+        <v>188</v>
+      </c>
+      <c r="I68" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="E68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" t="s">
-        <v>197</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3152,10 +3143,10 @@
         <v>621</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D69" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E69" t="s">
         <v>21</v>
@@ -3167,10 +3158,10 @@
         <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3181,10 +3172,10 @@
         <v>355</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D70" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E70" t="s">
         <v>21</v>
@@ -3196,10 +3187,10 @@
         <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3210,10 +3201,10 @@
         <v>295</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D71" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E71" t="s">
         <v>54</v>
@@ -3222,10 +3213,10 @@
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3236,10 +3227,10 @@
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D72" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E72" t="s">
         <v>21</v>
@@ -3251,10 +3242,10 @@
         <v>52</v>
       </c>
       <c r="H72" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3265,10 +3256,10 @@
         <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D73" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E73" t="s">
         <v>21</v>
@@ -3280,10 +3271,10 @@
         <v>52</v>
       </c>
       <c r="H73" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3294,10 +3285,10 @@
         <v>46</v>
       </c>
       <c r="C74" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D74" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E74" t="s">
         <v>21</v>
@@ -3309,10 +3300,10 @@
         <v>52</v>
       </c>
       <c r="H74" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3323,10 +3314,10 @@
         <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D75" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E75" t="s">
         <v>21</v>
@@ -3338,10 +3329,10 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3352,10 +3343,10 @@
         <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D76" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E76" t="s">
         <v>21</v>
@@ -3367,10 +3358,10 @@
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3381,10 +3372,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D77" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E77" t="s">
         <v>21</v>
@@ -3396,7 +3387,7 @@
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3407,10 +3398,10 @@
         <v>131</v>
       </c>
       <c r="C78" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D78" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E78" t="s">
         <v>21</v>
@@ -3422,10 +3413,10 @@
         <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3436,10 +3427,10 @@
         <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D79" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E79" t="s">
         <v>21</v>
@@ -3451,10 +3442,10 @@
         <v>52</v>
       </c>
       <c r="H79" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3465,10 +3456,10 @@
         <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D80" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E80" t="s">
         <v>54</v>
@@ -3477,7 +3468,7 @@
         <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3488,25 +3479,25 @@
         <v>200</v>
       </c>
       <c r="C81" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81" t="s">
+        <v>220</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
         <v>230</v>
       </c>
-      <c r="D81" t="s">
+      <c r="I81" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="E81" t="s">
-        <v>21</v>
-      </c>
-      <c r="F81" t="s">
-        <v>7</v>
-      </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" t="s">
-        <v>241</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3517,10 +3508,10 @@
         <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D82" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E82" t="s">
         <v>21</v>
@@ -3532,10 +3523,10 @@
         <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3546,10 +3537,10 @@
         <v>695</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D83" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E83" t="s">
         <v>21</v>
@@ -3561,10 +3552,10 @@
         <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3575,10 +3566,10 @@
         <v>417</v>
       </c>
       <c r="C84" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D84" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E84" t="s">
         <v>21</v>
@@ -3590,10 +3581,10 @@
         <v>52</v>
       </c>
       <c r="H84" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3604,25 +3595,25 @@
         <v>130</v>
       </c>
       <c r="C85" t="s">
+        <v>227</v>
+      </c>
+      <c r="D85" t="s">
+        <v>220</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>237</v>
+      </c>
+      <c r="I85" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="D85" t="s">
-        <v>231</v>
-      </c>
-      <c r="E85" t="s">
-        <v>21</v>
-      </c>
-      <c r="F85" t="s">
-        <v>7</v>
-      </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" t="s">
-        <v>248</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3633,10 +3624,10 @@
         <v>994</v>
       </c>
       <c r="C86" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D86" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="E86" t="s">
         <v>21</v>
@@ -3648,7 +3639,7 @@
         <v>52</v>
       </c>
       <c r="H86" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3659,10 +3650,10 @@
         <v>286</v>
       </c>
       <c r="C87" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D87" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="E87" t="s">
         <v>21</v>
@@ -3674,10 +3665,10 @@
         <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3688,10 +3679,10 @@
         <v>207</v>
       </c>
       <c r="C88" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D88" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="E88" t="s">
         <v>21</v>
@@ -3703,10 +3694,10 @@
         <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3717,16 +3708,25 @@
         <v>210</v>
       </c>
       <c r="C89" t="s">
+        <v>242</v>
+      </c>
+      <c r="D89" t="s">
+        <v>220</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
+        <v>245</v>
+      </c>
+      <c r="I89" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="D89" t="s">
-        <v>257</v>
-      </c>
-      <c r="E89" t="s">
-        <v>21</v>
-      </c>
-      <c r="F89" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3737,13 +3737,25 @@
         <v>684</v>
       </c>
       <c r="C90" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D90" t="s">
-        <v>259</v>
+        <v>220</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
       </c>
       <c r="F90" t="s">
         <v>7</v>
+      </c>
+      <c r="G90" t="s">
+        <v>52</v>
+      </c>
+      <c r="H90" t="s">
+        <v>245</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3754,21 +3766,54 @@
         <v>323</v>
       </c>
       <c r="C91" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D91" t="s">
-        <v>259</v>
+        <v>220</v>
+      </c>
+      <c r="E91" t="s">
+        <v>21</v>
       </c>
       <c r="F91" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="G91" t="s">
+        <v>52</v>
+      </c>
+      <c r="H91" t="s">
+        <v>248</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>255</v>
+      </c>
+      <c r="B92" s="4">
+        <v>261</v>
+      </c>
+      <c r="C92" t="s">
+        <v>252</v>
+      </c>
+      <c r="D92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E92" t="s">
+        <v>21</v>
       </c>
       <c r="F92" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="G92" t="s">
+        <v>52</v>
+      </c>
+      <c r="H92" t="s">
+        <v>253</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4246,6 +4291,23 @@
     <row r="152" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
       <c r="I152" s="8"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="4">
+        <v>547</v>
+      </c>
+      <c r="C154" t="s">
+        <v>249</v>
+      </c>
+      <c r="D154" t="s">
+        <v>250</v>
+      </c>
+      <c r="E154" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4816CCE-FCAF-46FF-AFA6-72BDC26D347B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABE866-B163-4896-BB3C-1A3499AB7FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Leetcode" sheetId="1" r:id="rId1"/>
+    <sheet name="AOC" sheetId="2" r:id="rId1"/>
+    <sheet name="Leetcode" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="273">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -107,9 +108,6 @@
     <t>Top K Frequent Elements</t>
   </si>
   <si>
-    <t>Arrays, Hashmaps, Bucket Sort</t>
-  </si>
-  <si>
     <t>21/05/2025</t>
   </si>
   <si>
@@ -290,9 +288,6 @@
     <t>10/06/2025</t>
   </si>
   <si>
-    <t>Stacks, Backtracking, Recursion</t>
-  </si>
-  <si>
     <t>Why do I struggle with recursion so much?</t>
   </si>
   <si>
@@ -746,9 +741,6 @@
     <t>23/07/2025</t>
   </si>
   <si>
-    <t>Had an iterative solution but didn't work in a weird scenario. I still don't fully understand why it didn't work. DFS solution seems to work though.</t>
-  </si>
-  <si>
     <t>24/07/2025</t>
   </si>
   <si>
@@ -810,6 +802,60 @@
   </si>
   <si>
     <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>DFS solution works.</t>
+  </si>
+  <si>
+    <t>Min Cost to Connect All Points</t>
+  </si>
+  <si>
+    <t>31/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Spanning Tree challenge. Prim's Algorithm used with Min Heap and BFS. Can also use Kruskals Algorithm. </t>
+  </si>
+  <si>
+    <t>Network Delay Time</t>
+  </si>
+  <si>
+    <t>Djikstra's Algorithm. Uses a Min Heap and BFS.</t>
+  </si>
+  <si>
+    <t>01/08/2025</t>
+  </si>
+  <si>
+    <t>Swim in Rising Water</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>02/08/2025</t>
+  </si>
+  <si>
+    <t>Hashmaps, Bucket Sort</t>
+  </si>
+  <si>
+    <t>Bellman-Ford algorithm. This algorithm is handy for negative edge weights and is used to find shortest distances between a source and destination.</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>04/08/2025</t>
   </si>
 </sst>
 </file>
@@ -1220,12 +1266,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673553DD-7322-43E4-B8E6-8596552AA633}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
   <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H99" activeCellId="1" sqref="H101 H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1325,7 @@
         <v>15</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1281,13 +1339,13 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -1385,22 +1443,22 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1411,11 +1469,11 @@
         <v>238</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
@@ -1426,7 +1484,7 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1437,25 +1495,25 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1466,25 +1524,25 @@
         <v>271</v>
       </c>
       <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1495,25 +1553,25 @@
         <v>128</v>
       </c>
       <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1524,25 +1582,25 @@
         <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1553,10 +1611,10 @@
         <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -1568,10 +1626,10 @@
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1582,25 +1640,25 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
+      <c r="I13" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1611,22 +1669,22 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
         <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1637,25 +1695,25 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
         <v>54</v>
       </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1666,10 +1724,10 @@
         <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -1681,7 +1739,7 @@
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1692,25 +1750,25 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
-        <v>257</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1721,25 +1779,25 @@
         <v>424</v>
       </c>
       <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
         <v>61</v>
       </c>
-      <c r="D18" t="s">
-        <v>257</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1750,25 +1808,25 @@
         <v>567</v>
       </c>
       <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s">
         <v>64</v>
       </c>
-      <c r="D19" t="s">
-        <v>257</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1779,25 +1837,25 @@
         <v>76</v>
       </c>
       <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>257</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1808,25 +1866,25 @@
         <v>239</v>
       </c>
       <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s">
         <v>70</v>
       </c>
-      <c r="D21" t="s">
-        <v>257</v>
-      </c>
-      <c r="E21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1837,10 +1895,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -1852,39 +1910,39 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="4">
         <v>155</v>
       </c>
       <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
         <v>76</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1895,10 +1953,10 @@
         <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
@@ -1910,10 +1968,10 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1924,25 +1982,25 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s">
         <v>82</v>
       </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1953,10 +2011,10 @@
         <v>739</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
@@ -1965,10 +2023,10 @@
         <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1979,25 +2037,25 @@
         <v>853</v>
       </c>
       <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2008,25 +2066,25 @@
         <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2037,10 +2095,10 @@
         <v>704</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
@@ -2052,10 +2110,10 @@
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2066,10 +2124,10 @@
         <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -2081,10 +2139,10 @@
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2095,10 +2153,10 @@
         <v>875</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -2110,10 +2168,10 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2124,25 +2182,25 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2153,10 +2211,10 @@
         <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -2168,10 +2226,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2182,10 +2240,10 @@
         <v>981</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
@@ -2197,10 +2255,10 @@
         <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2211,22 +2269,22 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="D35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" t="s">
-        <v>108</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2237,10 +2295,10 @@
         <v>206</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
@@ -2249,13 +2307,13 @@
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2266,10 +2324,10 @@
         <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
@@ -2278,13 +2336,13 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2295,10 +2353,10 @@
         <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -2307,13 +2365,13 @@
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2324,11 +2382,11 @@
         <v>19</v>
       </c>
       <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" t="s">
         <v>118</v>
       </c>
-      <c r="D39" t="s">
-        <v>120</v>
-      </c>
       <c r="E39" t="s">
         <v>21</v>
       </c>
@@ -2336,13 +2394,13 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2353,22 +2411,22 @@
         <v>138</v>
       </c>
       <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" t="s">
         <v>122</v>
-      </c>
-      <c r="D40" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2379,10 +2437,10 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -2394,10 +2452,10 @@
         <v>12</v>
       </c>
       <c r="H41" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2408,25 +2466,25 @@
         <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2437,25 +2495,25 @@
         <v>287</v>
       </c>
       <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" t="s">
         <v>129</v>
       </c>
-      <c r="D43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" t="s">
-        <v>52</v>
-      </c>
-      <c r="H43" t="s">
-        <v>131</v>
-      </c>
       <c r="I43" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2466,22 +2524,22 @@
         <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
         <v>133</v>
-      </c>
-      <c r="E44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2492,16 +2550,16 @@
         <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2512,16 +2570,16 @@
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2532,10 +2590,10 @@
         <v>226</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -2547,7 +2605,7 @@
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2558,25 +2616,25 @@
         <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2587,10 +2645,10 @@
         <v>543</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -2599,13 +2657,13 @@
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2616,10 +2674,10 @@
         <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
         <v>6</v>
@@ -2628,13 +2686,13 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2645,10 +2703,10 @@
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
@@ -2660,10 +2718,10 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2674,25 +2732,25 @@
         <v>572</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E52" t="s">
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2703,25 +2761,25 @@
         <v>235</v>
       </c>
       <c r="C53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="D53" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" t="s">
-        <v>153</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2732,10 +2790,10 @@
         <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
@@ -2747,10 +2805,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2761,10 +2819,10 @@
         <v>199</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
@@ -2776,10 +2834,10 @@
         <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2790,25 +2848,25 @@
         <v>1448</v>
       </c>
       <c r="C56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>51</v>
+      </c>
+      <c r="H56" t="s">
+        <v>158</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="D56" t="s">
-        <v>137</v>
-      </c>
-      <c r="E56" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" t="s">
-        <v>52</v>
-      </c>
-      <c r="H56" t="s">
-        <v>160</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2819,10 +2877,10 @@
         <v>98</v>
       </c>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
@@ -2831,10 +2889,10 @@
         <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2845,10 +2903,10 @@
         <v>230</v>
       </c>
       <c r="C58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D58" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
@@ -2860,10 +2918,10 @@
         <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2874,10 +2932,10 @@
         <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
@@ -2886,13 +2944,13 @@
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2903,19 +2961,19 @@
         <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F60" t="s">
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2926,19 +2984,19 @@
         <v>297</v>
       </c>
       <c r="C61" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F61" t="s">
         <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2949,10 +3007,10 @@
         <v>208</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E62" t="s">
         <v>21</v>
@@ -2964,10 +3022,10 @@
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2978,25 +3036,25 @@
         <v>211</v>
       </c>
       <c r="C63" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" t="s">
+        <v>51</v>
+      </c>
+      <c r="H63" t="s">
+        <v>172</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="D63" t="s">
-        <v>167</v>
-      </c>
-      <c r="E63" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" t="s">
-        <v>52</v>
-      </c>
-      <c r="H63" t="s">
-        <v>174</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3007,16 +3065,16 @@
         <v>212</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3027,10 +3085,10 @@
         <v>703</v>
       </c>
       <c r="C65" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" t="s">
         <v>178</v>
-      </c>
-      <c r="D65" t="s">
-        <v>180</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
@@ -3042,10 +3100,10 @@
         <v>12</v>
       </c>
       <c r="H65" t="s">
+        <v>177</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3056,10 +3114,10 @@
         <v>1046</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E66" t="s">
         <v>6</v>
@@ -3071,10 +3129,10 @@
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3085,10 +3143,10 @@
         <v>973</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D67" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
@@ -3100,10 +3158,10 @@
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3114,25 +3172,25 @@
         <v>215</v>
       </c>
       <c r="C68" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" t="s">
+        <v>186</v>
+      </c>
+      <c r="I68" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="D68" t="s">
-        <v>180</v>
-      </c>
-      <c r="E68" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" t="s">
-        <v>188</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3143,10 +3201,10 @@
         <v>621</v>
       </c>
       <c r="C69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D69" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E69" t="s">
         <v>21</v>
@@ -3158,10 +3216,10 @@
         <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3172,10 +3230,10 @@
         <v>355</v>
       </c>
       <c r="C70" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E70" t="s">
         <v>21</v>
@@ -3187,10 +3245,10 @@
         <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3201,22 +3259,22 @@
         <v>295</v>
       </c>
       <c r="C71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D71" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F71" t="s">
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3227,10 +3285,10 @@
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D72" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E72" t="s">
         <v>21</v>
@@ -3239,13 +3297,13 @@
         <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H72" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3256,25 +3314,25 @@
         <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D73" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E73" t="s">
         <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H73" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3285,25 +3343,25 @@
         <v>46</v>
       </c>
       <c r="C74" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" t="s">
+        <v>194</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>51</v>
+      </c>
+      <c r="H74" t="s">
+        <v>204</v>
+      </c>
+      <c r="I74" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="D74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74" t="s">
-        <v>52</v>
-      </c>
-      <c r="H74" t="s">
-        <v>206</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3314,10 +3372,10 @@
         <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D75" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E75" t="s">
         <v>21</v>
@@ -3329,10 +3387,10 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3343,25 +3401,25 @@
         <v>40</v>
       </c>
       <c r="C76" t="s">
+        <v>208</v>
+      </c>
+      <c r="D76" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" t="s">
+        <v>209</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="D76" t="s">
-        <v>196</v>
-      </c>
-      <c r="E76" t="s">
-        <v>21</v>
-      </c>
-      <c r="F76" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" t="s">
-        <v>211</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3372,10 +3430,10 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E77" t="s">
         <v>21</v>
@@ -3387,7 +3445,7 @@
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3398,25 +3456,25 @@
         <v>131</v>
       </c>
       <c r="C78" t="s">
+        <v>212</v>
+      </c>
+      <c r="D78" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>213</v>
+      </c>
+      <c r="I78" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="D78" t="s">
-        <v>196</v>
-      </c>
-      <c r="E78" t="s">
-        <v>21</v>
-      </c>
-      <c r="F78" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" t="s">
-        <v>215</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3427,10 +3485,10 @@
         <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D79" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E79" t="s">
         <v>21</v>
@@ -3439,13 +3497,13 @@
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H79" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3456,19 +3514,19 @@
         <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D80" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F80" t="s">
         <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3479,10 +3537,10 @@
         <v>200</v>
       </c>
       <c r="C81" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E81" t="s">
         <v>21</v>
@@ -3494,10 +3552,10 @@
         <v>12</v>
       </c>
       <c r="H81" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3508,10 +3566,10 @@
         <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D82" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E82" t="s">
         <v>21</v>
@@ -3523,10 +3581,10 @@
         <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3537,10 +3595,10 @@
         <v>695</v>
       </c>
       <c r="C83" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D83" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E83" t="s">
         <v>21</v>
@@ -3552,13 +3610,13 @@
         <v>12</v>
       </c>
       <c r="H83" t="s">
+        <v>230</v>
+      </c>
+      <c r="I83" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="I83" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -3566,10 +3624,10 @@
         <v>417</v>
       </c>
       <c r="C84" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D84" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E84" t="s">
         <v>21</v>
@@ -3578,13 +3636,13 @@
         <v>7</v>
       </c>
       <c r="G84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H84" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3595,10 +3653,10 @@
         <v>130</v>
       </c>
       <c r="C85" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D85" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E85" t="s">
         <v>21</v>
@@ -3610,10 +3668,10 @@
         <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3624,10 +3682,10 @@
         <v>994</v>
       </c>
       <c r="C86" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D86" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E86" t="s">
         <v>21</v>
@@ -3636,10 +3694,10 @@
         <v>7</v>
       </c>
       <c r="G86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H86" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3650,10 +3708,10 @@
         <v>286</v>
       </c>
       <c r="C87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D87" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E87" t="s">
         <v>21</v>
@@ -3665,10 +3723,10 @@
         <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3679,10 +3737,10 @@
         <v>207</v>
       </c>
       <c r="C88" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D88" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E88" t="s">
         <v>21</v>
@@ -3694,10 +3752,10 @@
         <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3708,25 +3766,25 @@
         <v>210</v>
       </c>
       <c r="C89" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" t="s">
+        <v>218</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
         <v>242</v>
       </c>
-      <c r="D89" t="s">
-        <v>220</v>
-      </c>
-      <c r="E89" t="s">
-        <v>21</v>
-      </c>
-      <c r="F89" t="s">
-        <v>7</v>
-      </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" t="s">
-        <v>245</v>
-      </c>
       <c r="I89" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3737,10 +3795,10 @@
         <v>684</v>
       </c>
       <c r="C90" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D90" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E90" t="s">
         <v>21</v>
@@ -3749,13 +3807,13 @@
         <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H90" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3766,121 +3824,259 @@
         <v>323</v>
       </c>
       <c r="C91" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D91" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E91" t="s">
         <v>21</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H91" t="s">
+        <v>245</v>
+      </c>
+      <c r="I91" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B92" s="4">
         <v>261</v>
       </c>
       <c r="C92" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D92" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E92" t="s">
         <v>21</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H92" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
+      <c r="B93" s="4">
+        <v>127</v>
+      </c>
+      <c r="C93" t="s">
+        <v>255</v>
+      </c>
+      <c r="D93" t="s">
+        <v>218</v>
+      </c>
+      <c r="E93" t="s">
+        <v>53</v>
+      </c>
       <c r="F93" t="s">
         <v>7</v>
+      </c>
+      <c r="G93" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
+      <c r="B94" s="4">
+        <v>332</v>
+      </c>
+      <c r="C94" t="s">
+        <v>256</v>
+      </c>
+      <c r="D94" t="s">
+        <v>218</v>
+      </c>
+      <c r="E94" t="s">
+        <v>53</v>
+      </c>
       <c r="F94" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
+      <c r="B95" s="4">
+        <v>1584</v>
+      </c>
+      <c r="C95" t="s">
+        <v>258</v>
+      </c>
+      <c r="D95" t="s">
+        <v>218</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
       <c r="F95" t="s">
         <v>7</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>259</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
+      <c r="B96" s="4">
+        <v>743</v>
+      </c>
+      <c r="C96" t="s">
+        <v>261</v>
+      </c>
+      <c r="D96" t="s">
+        <v>218</v>
+      </c>
+      <c r="E96" t="s">
+        <v>21</v>
+      </c>
       <c r="F96" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" t="s">
+        <v>263</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
+      <c r="B97" s="4">
+        <v>778</v>
+      </c>
+      <c r="C97" t="s">
+        <v>264</v>
+      </c>
+      <c r="D97" t="s">
+        <v>218</v>
+      </c>
+      <c r="E97" t="s">
+        <v>53</v>
+      </c>
       <c r="F97" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
+      <c r="B98" s="4">
+        <v>269</v>
+      </c>
+      <c r="C98" t="s">
+        <v>265</v>
+      </c>
+      <c r="D98" t="s">
+        <v>218</v>
+      </c>
+      <c r="E98" t="s">
+        <v>53</v>
+      </c>
       <c r="F98" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
+      <c r="B99" s="4">
+        <v>787</v>
+      </c>
+      <c r="C99" t="s">
+        <v>266</v>
+      </c>
+      <c r="D99" t="s">
+        <v>218</v>
+      </c>
+      <c r="E99" t="s">
+        <v>21</v>
+      </c>
       <c r="F99" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
+        <v>267</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
+      <c r="B100" s="4">
+        <v>70</v>
+      </c>
+      <c r="C100" t="s">
+        <v>270</v>
+      </c>
+      <c r="D100" t="s">
+        <v>271</v>
+      </c>
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
       <c r="F100" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -3888,7 +4084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -3896,7 +4092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -3904,7 +4100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -3912,7 +4108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -3920,7 +4116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -3928,7 +4124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -3936,7 +4132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -3944,7 +4140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -3952,7 +4148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -3960,7 +4156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -3968,7 +4164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -4300,10 +4496,10 @@
         <v>547</v>
       </c>
       <c r="C154" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D154" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E154" t="s">
         <v>21</v>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABE866-B163-4896-BB3C-1A3499AB7FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E047F94B-B667-4CE6-8446-4BE3A8300351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="280">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -856,6 +856,27 @@
   </si>
   <si>
     <t>04/08/2025</t>
+  </si>
+  <si>
+    <t>Min Cost Climbing Stairs</t>
+  </si>
+  <si>
+    <t>05/08/2025</t>
+  </si>
+  <si>
+    <t>Poorly worded problem. Top floor is outside bounds of array on the right.</t>
+  </si>
+  <si>
+    <t>Bottom-Up DP problem. Can also be solved with DFS and memoization.</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>House Robber II</t>
+  </si>
+  <si>
+    <t>Killed it with my DFS + Memo solution. Also nailed it on the DP method.</t>
   </si>
 </sst>
 </file>
@@ -1282,8 +1303,8 @@
   <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H99" activeCellId="1" sqref="H101 H99"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4070,31 +4091,91 @@
         <v>6</v>
       </c>
       <c r="F100" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
       </c>
       <c r="H100" t="s">
         <v>272</v>
       </c>
+      <c r="I100" s="5" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
+      <c r="B101" s="4">
+        <v>746</v>
+      </c>
+      <c r="C101" t="s">
+        <v>273</v>
+      </c>
+      <c r="D101" t="s">
+        <v>271</v>
+      </c>
+      <c r="E101" t="s">
+        <v>6</v>
+      </c>
       <c r="F101" t="s">
         <v>7</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
+        <v>274</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
+      <c r="B102" s="4">
+        <v>198</v>
+      </c>
+      <c r="C102" t="s">
+        <v>277</v>
+      </c>
+      <c r="D102" t="s">
+        <v>271</v>
+      </c>
+      <c r="E102" t="s">
+        <v>21</v>
+      </c>
       <c r="F102" t="s">
         <v>7</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" t="s">
+        <v>274</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
+      </c>
+      <c r="B103" s="4">
+        <v>213</v>
+      </c>
+      <c r="C103" t="s">
+        <v>278</v>
+      </c>
+      <c r="D103" t="s">
+        <v>271</v>
+      </c>
+      <c r="E103" t="s">
+        <v>21</v>
       </c>
       <c r="F103" t="s">
         <v>7</v>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E047F94B-B667-4CE6-8446-4BE3A8300351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4B8B8F-16B3-475E-B8D7-65B3763FB26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
   <sheets>
     <sheet name="AOC" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="288">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -877,6 +877,30 @@
   </si>
   <si>
     <t>Killed it with my DFS + Memo solution. Also nailed it on the DP method.</t>
+  </si>
+  <si>
+    <t>08/08/2025</t>
+  </si>
+  <si>
+    <t>Still a little unsure about the DFS recursion here.</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Interesting from center fan out in both direction dynamic solution.</t>
+  </si>
+  <si>
+    <t>Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>07/08/2025</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>09/08/2025</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1316,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1303,24 +1327,24 @@
   <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F103" sqref="F103"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="92.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="92.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1349,7 +1373,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1401,7 +1425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1427,7 +1451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1453,7 +1477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1482,7 +1506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1508,7 +1532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1537,7 +1561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1566,7 +1590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1595,7 +1619,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1648,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1653,7 +1677,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1682,7 +1706,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1737,7 +1761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1763,7 +1787,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1792,7 +1816,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1821,7 +1845,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1850,7 +1874,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1879,7 +1903,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1908,7 +1932,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1937,7 +1961,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -1966,7 +1990,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1995,7 +2019,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2024,7 +2048,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2050,7 +2074,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2079,7 +2103,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2108,7 +2132,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2137,7 +2161,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2166,7 +2190,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2195,7 +2219,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2224,7 +2248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2253,7 +2277,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2282,7 +2306,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2308,7 +2332,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2337,7 +2361,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2366,7 +2390,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2395,7 +2419,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2424,7 +2448,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2450,7 +2474,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2479,7 +2503,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2508,7 +2532,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2537,7 +2561,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2563,7 +2587,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2583,7 +2607,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2603,7 +2627,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2629,7 +2653,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2658,7 +2682,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2687,7 +2711,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2716,7 +2740,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -2745,7 +2769,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2774,7 +2798,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -2803,7 +2827,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2832,7 +2856,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2861,7 +2885,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2890,7 +2914,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2916,7 +2940,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2945,7 +2969,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2974,7 +2998,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2997,7 +3021,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -3020,7 +3044,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -3049,7 +3073,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -3078,7 +3102,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -3098,7 +3122,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -3127,7 +3151,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -3156,7 +3180,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -3185,7 +3209,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -3214,7 +3238,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -3243,7 +3267,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -3272,7 +3296,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -3298,7 +3322,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -3327,7 +3351,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -3356,7 +3380,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -3385,7 +3409,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -3414,7 +3438,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -3443,7 +3467,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -3469,7 +3493,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -3498,7 +3522,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -3527,7 +3551,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -3550,7 +3574,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -3579,7 +3603,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -3608,7 +3632,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -3637,7 +3661,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -3666,7 +3690,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -3695,7 +3719,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -3721,7 +3745,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -3750,7 +3774,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -3779,7 +3803,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -3808,7 +3832,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -3837,7 +3861,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -3866,7 +3890,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>252</v>
       </c>
@@ -3895,7 +3919,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -3918,7 +3942,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -3941,7 +3965,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -3970,7 +3994,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -3999,7 +4023,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -4022,7 +4046,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -4045,7 +4069,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -4074,7 +4098,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -4103,7 +4127,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -4132,7 +4156,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -4161,7 +4185,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -4180,80 +4204,164 @@
       <c r="F103" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>51</v>
+      </c>
+      <c r="H103" t="s">
+        <v>285</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>5</v>
       </c>
+      <c r="B104" s="4">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>282</v>
+      </c>
+      <c r="D104" t="s">
+        <v>271</v>
+      </c>
+      <c r="E104" t="s">
+        <v>21</v>
+      </c>
       <c r="F104" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>285</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>5</v>
       </c>
+      <c r="B105" s="4">
+        <v>647</v>
+      </c>
+      <c r="C105" t="s">
+        <v>284</v>
+      </c>
+      <c r="D105" t="s">
+        <v>271</v>
+      </c>
+      <c r="E105" t="s">
+        <v>21</v>
+      </c>
       <c r="F105" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G105" t="s">
+        <v>51</v>
+      </c>
+      <c r="H105" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>5</v>
       </c>
+      <c r="B106" s="4">
+        <v>91</v>
+      </c>
+      <c r="C106" t="s">
+        <v>286</v>
+      </c>
+      <c r="D106" t="s">
+        <v>271</v>
+      </c>
+      <c r="E106" t="s">
+        <v>21</v>
+      </c>
       <c r="F106" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>51</v>
+      </c>
+      <c r="H106" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>5</v>
       </c>
+      <c r="D107" t="s">
+        <v>271</v>
+      </c>
       <c r="F107" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>5</v>
       </c>
+      <c r="D108" t="s">
+        <v>271</v>
+      </c>
       <c r="F108" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>5</v>
       </c>
+      <c r="D109" t="s">
+        <v>271</v>
+      </c>
       <c r="F109" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>5</v>
       </c>
+      <c r="D110" t="s">
+        <v>271</v>
+      </c>
       <c r="F110" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>5</v>
       </c>
+      <c r="D111" t="s">
+        <v>271</v>
+      </c>
       <c r="F111" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>5</v>
       </c>
+      <c r="D112" t="s">
+        <v>271</v>
+      </c>
       <c r="F112" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -4261,7 +4369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -4269,7 +4377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -4277,7 +4385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -4285,7 +4393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -4293,7 +4401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -4301,7 +4409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -4309,7 +4417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -4317,7 +4425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -4325,7 +4433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -4333,7 +4441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -4341,7 +4449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -4349,7 +4457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -4357,7 +4465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -4365,7 +4473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -4373,7 +4481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -4381,7 +4489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -4389,7 +4497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -4397,7 +4505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -4405,7 +4513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -4413,7 +4521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -4421,7 +4529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -4429,7 +4537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -4437,7 +4545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -4445,7 +4553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -4453,7 +4561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -4461,7 +4569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -4469,7 +4577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -4477,7 +4585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -4485,7 +4593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -4493,7 +4601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -4501,7 +4609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -4509,7 +4617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -4517,7 +4625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -4525,7 +4633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -4533,7 +4641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -4541,7 +4649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -4549,7 +4657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -4557,7 +4665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -4565,11 +4673,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B152" s="7"/>
       <c r="I152" s="8"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>5</v>
       </c>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4B8B8F-16B3-475E-B8D7-65B3763FB26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C69694-3439-4368-B9E2-3E240E2BA950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
   <sheets>
     <sheet name="AOC" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="294">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -901,6 +901,24 @@
   </si>
   <si>
     <t>09/08/2025</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>11/08/2025</t>
+  </si>
+  <si>
+    <t>I don't understand the DP solution. The DFS solution makes more sense to me.</t>
+  </si>
+  <si>
+    <t>Almost solved with BFS solution. Missed infinite cycle detection.</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>12/08/2025</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1334,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1327,24 +1345,24 @@
   <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="52.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="92.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="92.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1399,7 +1417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1425,7 +1443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1451,7 +1469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1477,7 +1495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1506,7 +1524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1532,7 +1550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +1579,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1590,7 +1608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1619,7 +1637,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1648,7 +1666,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1677,7 +1695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1706,7 +1724,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1732,7 +1750,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1761,7 +1779,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1787,7 +1805,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1816,7 +1834,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1845,7 +1863,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1874,7 +1892,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1903,7 +1921,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1932,7 +1950,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1961,7 +1979,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -1990,7 +2008,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2019,7 +2037,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2048,7 +2066,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2074,7 +2092,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2103,7 +2121,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2132,7 +2150,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2161,7 +2179,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2190,7 +2208,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2219,7 +2237,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2248,7 +2266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2277,7 +2295,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2306,7 +2324,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2332,7 +2350,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2361,7 +2379,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2390,7 +2408,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2419,7 +2437,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2448,7 +2466,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2474,7 +2492,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2503,7 +2521,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2532,7 +2550,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2561,7 +2579,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2587,7 +2605,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2607,7 +2625,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2627,7 +2645,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2653,7 +2671,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2682,7 +2700,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2711,7 +2729,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2740,7 +2758,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -2769,7 +2787,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2798,7 +2816,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -2827,7 +2845,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2856,7 +2874,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2885,7 +2903,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2914,7 +2932,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2940,7 +2958,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -2969,7 +2987,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2998,7 +3016,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -3021,7 +3039,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -3044,7 +3062,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -3073,7 +3091,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -3102,7 +3120,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -3122,7 +3140,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -3151,7 +3169,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -3180,7 +3198,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -3209,7 +3227,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -3238,7 +3256,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -3267,7 +3285,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -3296,7 +3314,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -3322,7 +3340,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -3351,7 +3369,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -3380,7 +3398,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -3409,7 +3427,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -3438,7 +3456,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -3467,7 +3485,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -3493,7 +3511,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -3522,7 +3540,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -3551,7 +3569,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -3574,7 +3592,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -3603,7 +3621,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -3632,7 +3650,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -3661,7 +3679,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -3690,7 +3708,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -3719,7 +3737,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -3745,7 +3763,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -3774,7 +3792,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -3803,7 +3821,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -3832,7 +3850,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -3861,7 +3879,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -3890,7 +3908,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>252</v>
       </c>
@@ -3919,7 +3937,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -3942,7 +3960,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -3965,7 +3983,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -3994,7 +4012,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -4023,7 +4041,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -4046,7 +4064,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -4069,7 +4087,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -4098,7 +4116,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -4127,7 +4145,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -4156,7 +4174,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -4185,7 +4203,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -4214,7 +4232,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -4243,7 +4261,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -4269,7 +4287,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -4294,30 +4312,63 @@
       <c r="H106" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I106" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
+      </c>
+      <c r="B107" s="4">
+        <v>322</v>
+      </c>
+      <c r="C107" t="s">
+        <v>288</v>
       </c>
       <c r="D107" t="s">
         <v>271</v>
       </c>
+      <c r="E107" t="s">
+        <v>21</v>
+      </c>
       <c r="F107" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G107" t="s">
+        <v>51</v>
+      </c>
+      <c r="H107" t="s">
+        <v>289</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
+      </c>
+      <c r="B108" s="4">
+        <v>152</v>
+      </c>
+      <c r="C108" t="s">
+        <v>292</v>
       </c>
       <c r="D108" t="s">
         <v>271</v>
       </c>
+      <c r="E108" t="s">
+        <v>21</v>
+      </c>
       <c r="F108" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H108" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -4328,7 +4379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -4339,7 +4390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -4350,7 +4401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -4361,7 +4412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -4369,7 +4420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -4377,7 +4428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -4385,7 +4436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -4393,7 +4444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -4401,7 +4452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -4409,7 +4460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -4417,7 +4468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -4425,7 +4476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -4433,7 +4484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -4441,7 +4492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -4449,7 +4500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -4457,7 +4508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -4465,7 +4516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -4473,7 +4524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -4481,7 +4532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -4489,7 +4540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -4497,7 +4548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -4505,7 +4556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -4513,7 +4564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -4521,7 +4572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -4529,7 +4580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -4537,7 +4588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -4545,7 +4596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -4553,7 +4604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -4561,7 +4612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -4569,7 +4620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -4577,7 +4628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -4585,7 +4636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -4593,7 +4644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -4601,7 +4652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -4609,7 +4660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -4617,7 +4668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -4625,7 +4676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -4633,7 +4684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -4641,7 +4692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -4649,7 +4700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -4657,7 +4708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -4665,7 +4716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -4673,11 +4724,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
       <c r="I152" s="8"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
       </c>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C69694-3439-4368-B9E2-3E240E2BA950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB945CB4-19E6-4B4D-A006-C8667D497288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="307">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -919,6 +919,45 @@
   </si>
   <si>
     <t>12/08/2025</t>
+  </si>
+  <si>
+    <t>This one is all about patterns.DP patterns.</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>13/08/2025</t>
+  </si>
+  <si>
+    <t>Gorgeous intuitive DP pattern. Love it.</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>Unique Paths</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>Beautiful code. DP is amazing. Working backwards seems to be a common theme in DP.</t>
+  </si>
+  <si>
+    <t>14/08/2025</t>
+  </si>
+  <si>
+    <t>21/08/2025</t>
+  </si>
+  <si>
+    <t>22/08/2025</t>
   </si>
 </sst>
 </file>
@@ -1344,9 +1383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4364,71 +4403,173 @@
       <c r="F108" t="s">
         <v>7</v>
       </c>
+      <c r="G108" t="s">
+        <v>51</v>
+      </c>
       <c r="H108" t="s">
         <v>293</v>
       </c>
+      <c r="I108" s="5" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
+      <c r="B109" s="4">
+        <v>139</v>
+      </c>
+      <c r="C109" t="s">
+        <v>295</v>
+      </c>
       <c r="D109" t="s">
         <v>271</v>
       </c>
+      <c r="E109" t="s">
+        <v>21</v>
+      </c>
       <c r="F109" t="s">
         <v>7</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>296</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
+      <c r="B110" s="4">
+        <v>300</v>
+      </c>
+      <c r="C110" t="s">
+        <v>298</v>
+      </c>
       <c r="D110" t="s">
         <v>271</v>
       </c>
+      <c r="E110" t="s">
+        <v>21</v>
+      </c>
       <c r="F110" t="s">
         <v>7</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
+        <v>296</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
+      <c r="B111" s="4">
+        <v>416</v>
+      </c>
+      <c r="C111" t="s">
+        <v>299</v>
+      </c>
       <c r="D111" t="s">
         <v>271</v>
       </c>
+      <c r="E111" t="s">
+        <v>21</v>
+      </c>
       <c r="F111" t="s">
         <v>7</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
+      <c r="B112" s="4">
+        <v>62</v>
+      </c>
+      <c r="C112" t="s">
+        <v>300</v>
+      </c>
       <c r="D112" t="s">
         <v>271</v>
       </c>
+      <c r="E112" t="s">
+        <v>21</v>
+      </c>
       <c r="F112" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
+      <c r="B113" s="4">
+        <v>1143</v>
+      </c>
+      <c r="C113" t="s">
+        <v>301</v>
+      </c>
+      <c r="D113" t="s">
+        <v>271</v>
+      </c>
+      <c r="E113" t="s">
+        <v>21</v>
+      </c>
       <c r="F113" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
+      <c r="B114" s="4">
+        <v>309</v>
+      </c>
+      <c r="C114" t="s">
+        <v>302</v>
+      </c>
+      <c r="D114" t="s">
+        <v>271</v>
+      </c>
+      <c r="E114" t="s">
+        <v>21</v>
+      </c>
       <c r="F114" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -4436,7 +4577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -4444,7 +4585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -4452,7 +4593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -4460,7 +4601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -4468,7 +4609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -4476,7 +4617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -4484,7 +4625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -4492,7 +4633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -4500,7 +4641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -4508,7 +4649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -4516,7 +4657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -4524,7 +4665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -4532,7 +4673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB945CB4-19E6-4B4D-A006-C8667D497288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A596251-E784-4E31-8006-35B83983C08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="324">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -958,6 +958,57 @@
   </si>
   <si>
     <t>22/08/2025</t>
+  </si>
+  <si>
+    <t>Coin Change II</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>Interleaving Strings</t>
+  </si>
+  <si>
+    <t>Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>Distinct Subsequences</t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Burst Baloons</t>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>DFS solution works beautifully.</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>26/08/2025</t>
+  </si>
+  <si>
+    <t>25/08/2025</t>
+  </si>
+  <si>
+    <t>Unbounded Knapsack. Bottom-Up DP.</t>
+  </si>
+  <si>
+    <t>28/08/2025</t>
+  </si>
+  <si>
+    <t>DFS with cache.</t>
   </si>
 </sst>
 </file>
@@ -1383,9 +1434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I113" sqref="I113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4523,7 +4574,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -4549,7 +4600,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -4568,88 +4619,250 @@
       <c r="F114" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" t="s">
+        <v>320</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
+      <c r="B115" s="4">
+        <v>518</v>
+      </c>
+      <c r="C115" t="s">
+        <v>307</v>
+      </c>
+      <c r="D115" t="s">
+        <v>271</v>
+      </c>
+      <c r="E115" t="s">
+        <v>21</v>
+      </c>
       <c r="F115" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>319</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
+      <c r="B116" s="4">
+        <v>494</v>
+      </c>
+      <c r="C116" t="s">
+        <v>308</v>
+      </c>
+      <c r="D116" t="s">
+        <v>271</v>
+      </c>
+      <c r="E116" t="s">
+        <v>21</v>
+      </c>
       <c r="F116" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>322</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
+      <c r="B117" s="4">
+        <v>97</v>
+      </c>
+      <c r="C117" t="s">
+        <v>309</v>
+      </c>
+      <c r="D117" t="s">
+        <v>271</v>
+      </c>
+      <c r="E117" t="s">
+        <v>21</v>
+      </c>
       <c r="F117" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
+      <c r="B118" s="4">
+        <v>329</v>
+      </c>
+      <c r="C118" t="s">
+        <v>310</v>
+      </c>
+      <c r="D118" t="s">
+        <v>271</v>
+      </c>
+      <c r="E118" t="s">
+        <v>53</v>
+      </c>
       <c r="F118" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G118" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
+      <c r="B119" s="4">
+        <v>115</v>
+      </c>
+      <c r="C119" t="s">
+        <v>311</v>
+      </c>
+      <c r="D119" t="s">
+        <v>271</v>
+      </c>
+      <c r="E119" t="s">
+        <v>53</v>
+      </c>
       <c r="F119" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G119" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
+      <c r="B120" s="4">
+        <v>72</v>
+      </c>
+      <c r="C120" t="s">
+        <v>312</v>
+      </c>
+      <c r="D120" t="s">
+        <v>271</v>
+      </c>
+      <c r="E120" t="s">
+        <v>53</v>
+      </c>
       <c r="F120" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G120" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
+      <c r="B121" s="4">
+        <v>312</v>
+      </c>
+      <c r="C121" t="s">
+        <v>313</v>
+      </c>
+      <c r="D121" t="s">
+        <v>271</v>
+      </c>
+      <c r="E121" t="s">
+        <v>53</v>
+      </c>
       <c r="F121" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
+      <c r="B122" s="4">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
+        <v>314</v>
+      </c>
+      <c r="D122" t="s">
+        <v>271</v>
+      </c>
+      <c r="E122" t="s">
+        <v>53</v>
+      </c>
       <c r="F122" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G122" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
+      <c r="B123" s="4">
+        <v>53</v>
+      </c>
+      <c r="C123" t="s">
+        <v>316</v>
+      </c>
+      <c r="D123" t="s">
+        <v>271</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
       <c r="F123" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
+      <c r="B124" s="4">
+        <v>55</v>
+      </c>
+      <c r="C124" t="s">
+        <v>317</v>
+      </c>
+      <c r="D124" t="s">
+        <v>318</v>
+      </c>
+      <c r="E124" t="s">
+        <v>21</v>
+      </c>
       <c r="F124" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -4657,7 +4870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -4665,7 +4878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -4673,7 +4886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A596251-E784-4E31-8006-35B83983C08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACC4D9D-1067-42B7-AF08-20E902BD9D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="328">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -1009,6 +1009,18 @@
   </si>
   <si>
     <t>DFS with cache.</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>Still a bit iffy on the solution given by neetcode. Doesn't make complete sense to me.</t>
+  </si>
+  <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
   </si>
 </sst>
 </file>
@@ -1435,8 +1447,8 @@
   <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H116" sqref="H116"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4706,6 +4718,15 @@
       <c r="F117" t="s">
         <v>7</v>
       </c>
+      <c r="G117" t="s">
+        <v>51</v>
+      </c>
+      <c r="H117" t="s">
+        <v>324</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -4836,7 +4857,7 @@
         <v>271</v>
       </c>
       <c r="E123" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F123" t="s">
         <v>7</v>
@@ -4861,10 +4882,28 @@
       <c r="F124" t="s">
         <v>7</v>
       </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
+      </c>
+      <c r="B125" s="4">
+        <v>45</v>
+      </c>
+      <c r="C125" t="s">
+        <v>327</v>
+      </c>
+      <c r="D125" t="s">
+        <v>318</v>
+      </c>
+      <c r="E125" t="s">
+        <v>21</v>
       </c>
       <c r="F125" t="s">
         <v>7</v>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACC4D9D-1067-42B7-AF08-20E902BD9D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748D3375-B6E5-4138-B84F-C51325DA8823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="335">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -1021,6 +1021,27 @@
   </si>
   <si>
     <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>Can be solved with DP as well.</t>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>03/09/2025</t>
+  </si>
+  <si>
+    <t>Hand of Straights</t>
+  </si>
+  <si>
+    <t>Merge Triplets to Form Target Triplet</t>
+  </si>
+  <si>
+    <t>Partition Labels</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1469,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H125" sqref="H125"/>
+      <selection pane="bottomLeft" activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4908,19 +4929,58 @@
       <c r="F125" t="s">
         <v>7</v>
       </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>328</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
+      <c r="B126" s="4">
+        <v>134</v>
+      </c>
+      <c r="C126" t="s">
+        <v>330</v>
+      </c>
+      <c r="D126" t="s">
+        <v>318</v>
+      </c>
+      <c r="E126" t="s">
+        <v>21</v>
+      </c>
       <c r="F126" t="s">
         <v>7</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
+      <c r="B127" s="4">
+        <v>846</v>
+      </c>
+      <c r="C127" t="s">
+        <v>332</v>
+      </c>
+      <c r="D127" t="s">
+        <v>318</v>
+      </c>
+      <c r="E127" t="s">
+        <v>21</v>
+      </c>
       <c r="F127" t="s">
         <v>7</v>
       </c>
@@ -4929,6 +4989,18 @@
       <c r="A128" t="s">
         <v>5</v>
       </c>
+      <c r="B128" s="4">
+        <v>5785</v>
+      </c>
+      <c r="C128" t="s">
+        <v>333</v>
+      </c>
+      <c r="D128" t="s">
+        <v>318</v>
+      </c>
+      <c r="E128" t="s">
+        <v>21</v>
+      </c>
       <c r="F128" t="s">
         <v>7</v>
       </c>
@@ -4936,6 +5008,18 @@
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
+      </c>
+      <c r="B129" s="4">
+        <v>763</v>
+      </c>
+      <c r="C129" t="s">
+        <v>334</v>
+      </c>
+      <c r="D129" t="s">
+        <v>318</v>
+      </c>
+      <c r="E129" t="s">
+        <v>21</v>
       </c>
       <c r="F129" t="s">
         <v>7</v>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748D3375-B6E5-4138-B84F-C51325DA8823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB76274-446C-4C70-8B0B-B41D9D8334DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="338">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -1042,6 +1042,15 @@
   </si>
   <si>
     <t>Partition Labels</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>Beatiful use of hashmap and minheap. Some elegant code.</t>
+  </si>
+  <si>
+    <t>05/09/2025</t>
   </si>
 </sst>
 </file>
@@ -1468,8 +1477,8 @@
   <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H126" sqref="H126"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4984,13 +4993,22 @@
       <c r="F127" t="s">
         <v>7</v>
       </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
+        <v>335</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
       <c r="B128" s="4">
-        <v>5785</v>
+        <v>1899</v>
       </c>
       <c r="C128" t="s">
         <v>333</v>
@@ -5004,8 +5022,14 @@
       <c r="F128" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -5024,8 +5048,14 @@
       <c r="F129" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -5033,7 +5063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -5041,7 +5071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -5049,7 +5079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -5057,7 +5087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -5065,7 +5095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -5073,7 +5103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -5081,7 +5111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -5089,7 +5119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -5097,7 +5127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -5105,7 +5135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -5113,7 +5143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -5121,7 +5151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -5129,7 +5159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -5137,7 +5167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB76274-446C-4C70-8B0B-B41D9D8334DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4896DA11-B417-47EE-B622-D21DDA720C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="349">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -1051,6 +1051,39 @@
   </si>
   <si>
     <t>05/09/2025</t>
+  </si>
+  <si>
+    <t>Valid Parenthesis String</t>
+  </si>
+  <si>
+    <t>06/09/2025</t>
+  </si>
+  <si>
+    <t>Alternate solution to using a stack.</t>
+  </si>
+  <si>
+    <t>Arrays, Intervals</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Non-Overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Meeting Rooms</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Minimum Interval to Include Each Query</t>
+  </si>
+  <si>
+    <t>08/09/2025</t>
   </si>
 </sst>
 </file>
@@ -1477,8 +1510,8 @@
   <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H129" sqref="H129"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5029,7 +5062,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -5055,63 +5088,162 @@
         <v>337</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
+      <c r="B130" s="4">
+        <v>678</v>
+      </c>
+      <c r="C130" t="s">
+        <v>338</v>
+      </c>
+      <c r="D130" t="s">
+        <v>318</v>
+      </c>
+      <c r="E130" t="s">
+        <v>21</v>
+      </c>
       <c r="F130" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" t="s">
+        <v>339</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
+      <c r="B131" s="4">
+        <v>57</v>
+      </c>
+      <c r="C131" t="s">
+        <v>342</v>
+      </c>
+      <c r="D131" t="s">
+        <v>341</v>
+      </c>
+      <c r="E131" t="s">
+        <v>21</v>
+      </c>
       <c r="F131" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="H131" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
+      <c r="B132" s="4">
+        <v>56</v>
+      </c>
+      <c r="C132" t="s">
+        <v>343</v>
+      </c>
+      <c r="D132" t="s">
+        <v>341</v>
+      </c>
+      <c r="E132" t="s">
+        <v>21</v>
+      </c>
       <c r="F132" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
+      <c r="B133" s="4">
+        <v>435</v>
+      </c>
+      <c r="C133" t="s">
+        <v>344</v>
+      </c>
+      <c r="D133" t="s">
+        <v>341</v>
+      </c>
+      <c r="E133" t="s">
+        <v>21</v>
+      </c>
       <c r="F133" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
+      <c r="B134" s="4">
+        <v>252</v>
+      </c>
+      <c r="C134" t="s">
+        <v>345</v>
+      </c>
+      <c r="D134" t="s">
+        <v>341</v>
+      </c>
+      <c r="E134" t="s">
+        <v>21</v>
+      </c>
       <c r="F134" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>252</v>
+      </c>
+      <c r="B135" s="4">
+        <v>253</v>
+      </c>
+      <c r="C135" t="s">
+        <v>346</v>
+      </c>
+      <c r="D135" t="s">
+        <v>341</v>
+      </c>
+      <c r="E135" t="s">
+        <v>21</v>
       </c>
       <c r="F135" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
+      <c r="B136" s="4">
+        <v>1851</v>
+      </c>
+      <c r="C136" t="s">
+        <v>347</v>
+      </c>
+      <c r="D136" t="s">
+        <v>341</v>
+      </c>
+      <c r="E136" t="s">
+        <v>53</v>
+      </c>
       <c r="F136" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -5119,7 +5251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -5127,7 +5259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -5135,7 +5267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -5143,7 +5275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -5151,7 +5283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -5159,7 +5291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -5167,7 +5299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4896DA11-B417-47EE-B622-D21DDA720C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AA2CC8-B98F-4E35-B14C-8C37E13295AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="356">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -1084,13 +1084,34 @@
   </si>
   <si>
     <t>08/09/2025</t>
+  </si>
+  <si>
+    <t>09/09/2025</t>
+  </si>
+  <si>
+    <t>Leetcode, Lintcode</t>
+  </si>
+  <si>
+    <t>252, 920</t>
+  </si>
+  <si>
+    <t>https://www.lintcode.com/problem/920/</t>
+  </si>
+  <si>
+    <t>10/09/2025</t>
+  </si>
+  <si>
+    <t>253, 919</t>
+  </si>
+  <si>
+    <t>https://www.lintcode.com/problem/919/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1108,6 +1129,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1136,10 +1165,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1161,8 +1191,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1510,8 +1544,8 @@
   <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G131" sqref="G131"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5136,6 +5170,9 @@
       <c r="F131" t="s">
         <v>40</v>
       </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
       <c r="H131" t="s">
         <v>348</v>
       </c>
@@ -5159,6 +5196,12 @@
       <c r="F132" t="s">
         <v>7</v>
       </c>
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -5177,15 +5220,21 @@
         <v>21</v>
       </c>
       <c r="F133" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B134" s="4">
-        <v>252</v>
+        <v>350</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="C134" t="s">
         <v>345</v>
@@ -5199,13 +5248,22 @@
       <c r="F134" t="s">
         <v>7</v>
       </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
+        <v>349</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>252</v>
-      </c>
-      <c r="B135" s="4">
-        <v>253</v>
+        <v>350</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="C135" t="s">
         <v>346</v>
@@ -5218,6 +5276,15 @@
       </c>
       <c r="F135" t="s">
         <v>7</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" t="s">
+        <v>353</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -5386,6 +5453,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I134" r:id="rId1" xr:uid="{4213E806-E604-4AE2-8406-2DB17397E06E}"/>
+    <hyperlink ref="I135" r:id="rId2" xr:uid="{A42CB0AD-40C9-4576-B622-DF300ED56D10}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AA2CC8-B98F-4E35-B14C-8C37E13295AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9BD1A9-FA9A-4C9E-A8AC-2C47A3CABE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="378">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -798,9 +798,6 @@
     <t>Leetcode (Premium), Lintcode</t>
   </si>
   <si>
-    <t>Directed Graph. Topolotical Sort.</t>
-  </si>
-  <si>
     <t>Sliding Window</t>
   </si>
   <si>
@@ -1105,6 +1102,75 @@
   </si>
   <si>
     <t>https://www.lintcode.com/problem/919/</t>
+  </si>
+  <si>
+    <t>Matrices</t>
+  </si>
+  <si>
+    <t>11/09/2025</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>Happy Number</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>Pow(x,y) - X to the Power of N</t>
+  </si>
+  <si>
+    <t>Multiply Strings</t>
+  </si>
+  <si>
+    <t>Detect Squares</t>
+  </si>
+  <si>
+    <t>Single Number</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>Counting Bits</t>
+  </si>
+  <si>
+    <t>Reverse Bits</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>Sum of Two Integers</t>
+  </si>
+  <si>
+    <t>Reverse Integer</t>
+  </si>
+  <si>
+    <t>Trick is to go in reverse order.</t>
+  </si>
+  <si>
+    <t>Directed Graph. Topological Sort.</t>
+  </si>
+  <si>
+    <t>12/09/2025</t>
+  </si>
+  <si>
+    <t>Trick is to have 4 pointers.</t>
   </si>
 </sst>
 </file>
@@ -1543,9 +1609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H135" sqref="H135"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1771,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -2015,7 +2081,7 @@
         <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -2044,7 +2110,7 @@
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -2073,7 +2139,7 @@
         <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -2102,7 +2168,7 @@
         <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E20" t="s">
         <v>53</v>
@@ -2131,7 +2197,7 @@
         <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E21" t="s">
         <v>53</v>
@@ -3904,7 +3970,7 @@
         <v>233</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4046,7 +4112,7 @@
         <v>242</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>253</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4144,7 +4210,7 @@
         <v>127</v>
       </c>
       <c r="C93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D93" t="s">
         <v>218</v>
@@ -4167,7 +4233,7 @@
         <v>332</v>
       </c>
       <c r="C94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D94" t="s">
         <v>218</v>
@@ -4190,7 +4256,7 @@
         <v>1584</v>
       </c>
       <c r="C95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D95" t="s">
         <v>218</v>
@@ -4205,10 +4271,10 @@
         <v>12</v>
       </c>
       <c r="H95" t="s">
+        <v>258</v>
+      </c>
+      <c r="I95" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4219,7 +4285,7 @@
         <v>743</v>
       </c>
       <c r="C96" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D96" t="s">
         <v>218</v>
@@ -4234,10 +4300,10 @@
         <v>12</v>
       </c>
       <c r="H96" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4248,7 +4314,7 @@
         <v>778</v>
       </c>
       <c r="C97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D97" t="s">
         <v>218</v>
@@ -4271,7 +4337,7 @@
         <v>269</v>
       </c>
       <c r="C98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D98" t="s">
         <v>218</v>
@@ -4294,7 +4360,7 @@
         <v>787</v>
       </c>
       <c r="C99" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D99" t="s">
         <v>218</v>
@@ -4309,10 +4375,10 @@
         <v>12</v>
       </c>
       <c r="H99" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4323,10 +4389,10 @@
         <v>70</v>
       </c>
       <c r="C100" t="s">
+        <v>269</v>
+      </c>
+      <c r="D100" t="s">
         <v>270</v>
-      </c>
-      <c r="D100" t="s">
-        <v>271</v>
       </c>
       <c r="E100" t="s">
         <v>6</v>
@@ -4338,10 +4404,10 @@
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4352,10 +4418,10 @@
         <v>746</v>
       </c>
       <c r="C101" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D101" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E101" t="s">
         <v>6</v>
@@ -4367,10 +4433,10 @@
         <v>12</v>
       </c>
       <c r="H101" t="s">
+        <v>273</v>
+      </c>
+      <c r="I101" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4381,10 +4447,10 @@
         <v>198</v>
       </c>
       <c r="C102" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D102" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E102" t="s">
         <v>21</v>
@@ -4396,10 +4462,10 @@
         <v>12</v>
       </c>
       <c r="H102" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4410,10 +4476,10 @@
         <v>213</v>
       </c>
       <c r="C103" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D103" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E103" t="s">
         <v>21</v>
@@ -4425,10 +4491,10 @@
         <v>51</v>
       </c>
       <c r="H103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4439,10 +4505,10 @@
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D104" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E104" t="s">
         <v>21</v>
@@ -4454,10 +4520,10 @@
         <v>12</v>
       </c>
       <c r="H104" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -4468,10 +4534,10 @@
         <v>647</v>
       </c>
       <c r="C105" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D105" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E105" t="s">
         <v>21</v>
@@ -4483,7 +4549,7 @@
         <v>51</v>
       </c>
       <c r="H105" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4494,10 +4560,10 @@
         <v>91</v>
       </c>
       <c r="C106" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D106" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E106" t="s">
         <v>21</v>
@@ -4509,10 +4575,10 @@
         <v>51</v>
       </c>
       <c r="H106" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4523,10 +4589,10 @@
         <v>322</v>
       </c>
       <c r="C107" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D107" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E107" t="s">
         <v>21</v>
@@ -4538,10 +4604,10 @@
         <v>51</v>
       </c>
       <c r="H107" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4552,10 +4618,10 @@
         <v>152</v>
       </c>
       <c r="C108" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D108" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E108" t="s">
         <v>21</v>
@@ -4567,10 +4633,10 @@
         <v>51</v>
       </c>
       <c r="H108" t="s">
+        <v>292</v>
+      </c>
+      <c r="I108" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4581,25 +4647,25 @@
         <v>139</v>
       </c>
       <c r="C109" t="s">
+        <v>294</v>
+      </c>
+      <c r="D109" t="s">
+        <v>270</v>
+      </c>
+      <c r="E109" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
         <v>295</v>
       </c>
-      <c r="D109" t="s">
-        <v>271</v>
-      </c>
-      <c r="E109" t="s">
-        <v>21</v>
-      </c>
-      <c r="F109" t="s">
-        <v>7</v>
-      </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="I109" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="I109" s="5" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4610,10 +4676,10 @@
         <v>300</v>
       </c>
       <c r="C110" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D110" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E110" t="s">
         <v>21</v>
@@ -4625,10 +4691,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4639,10 +4705,10 @@
         <v>416</v>
       </c>
       <c r="C111" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D111" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E111" t="s">
         <v>21</v>
@@ -4654,7 +4720,7 @@
         <v>12</v>
       </c>
       <c r="H111" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4665,10 +4731,10 @@
         <v>62</v>
       </c>
       <c r="C112" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D112" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E112" t="s">
         <v>21</v>
@@ -4680,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4691,10 +4757,10 @@
         <v>1143</v>
       </c>
       <c r="C113" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D113" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E113" t="s">
         <v>21</v>
@@ -4706,7 +4772,7 @@
         <v>12</v>
       </c>
       <c r="H113" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4717,10 +4783,10 @@
         <v>309</v>
       </c>
       <c r="C114" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D114" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E114" t="s">
         <v>21</v>
@@ -4732,10 +4798,10 @@
         <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4746,10 +4812,10 @@
         <v>518</v>
       </c>
       <c r="C115" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D115" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E115" t="s">
         <v>21</v>
@@ -4761,10 +4827,10 @@
         <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4775,10 +4841,10 @@
         <v>494</v>
       </c>
       <c r="C116" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D116" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E116" t="s">
         <v>21</v>
@@ -4790,10 +4856,10 @@
         <v>12</v>
       </c>
       <c r="H116" t="s">
+        <v>321</v>
+      </c>
+      <c r="I116" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4804,10 +4870,10 @@
         <v>97</v>
       </c>
       <c r="C117" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D117" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E117" t="s">
         <v>21</v>
@@ -4819,10 +4885,10 @@
         <v>51</v>
       </c>
       <c r="H117" t="s">
+        <v>323</v>
+      </c>
+      <c r="I117" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4833,10 +4899,10 @@
         <v>329</v>
       </c>
       <c r="C118" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D118" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E118" t="s">
         <v>53</v>
@@ -4856,10 +4922,10 @@
         <v>115</v>
       </c>
       <c r="C119" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D119" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E119" t="s">
         <v>53</v>
@@ -4879,10 +4945,10 @@
         <v>72</v>
       </c>
       <c r="C120" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D120" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E120" t="s">
         <v>53</v>
@@ -4902,10 +4968,10 @@
         <v>312</v>
       </c>
       <c r="C121" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D121" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E121" t="s">
         <v>53</v>
@@ -4925,10 +4991,10 @@
         <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D122" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E122" t="s">
         <v>53</v>
@@ -4948,16 +5014,22 @@
         <v>53</v>
       </c>
       <c r="C123" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D123" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E123" t="s">
         <v>21</v>
       </c>
       <c r="F123" t="s">
         <v>7</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4968,11 +5040,11 @@
         <v>55</v>
       </c>
       <c r="C124" t="s">
+        <v>316</v>
+      </c>
+      <c r="D124" t="s">
         <v>317</v>
       </c>
-      <c r="D124" t="s">
-        <v>318</v>
-      </c>
       <c r="E124" t="s">
         <v>21</v>
       </c>
@@ -4983,7 +5055,7 @@
         <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4994,25 +5066,25 @@
         <v>45</v>
       </c>
       <c r="C125" t="s">
+        <v>326</v>
+      </c>
+      <c r="D125" t="s">
+        <v>317</v>
+      </c>
+      <c r="E125" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
         <v>327</v>
       </c>
-      <c r="D125" t="s">
-        <v>318</v>
-      </c>
-      <c r="E125" t="s">
-        <v>21</v>
-      </c>
-      <c r="F125" t="s">
-        <v>7</v>
-      </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" t="s">
+      <c r="I125" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5023,22 +5095,22 @@
         <v>134</v>
       </c>
       <c r="C126" t="s">
+        <v>329</v>
+      </c>
+      <c r="D126" t="s">
+        <v>317</v>
+      </c>
+      <c r="E126" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" t="s">
+        <v>7</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
         <v>330</v>
-      </c>
-      <c r="D126" t="s">
-        <v>318</v>
-      </c>
-      <c r="E126" t="s">
-        <v>21</v>
-      </c>
-      <c r="F126" t="s">
-        <v>7</v>
-      </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
-      <c r="H126" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5049,10 +5121,10 @@
         <v>846</v>
       </c>
       <c r="C127" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D127" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E127" t="s">
         <v>21</v>
@@ -5064,10 +5136,10 @@
         <v>12</v>
       </c>
       <c r="H127" t="s">
+        <v>334</v>
+      </c>
+      <c r="I127" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5078,10 +5150,10 @@
         <v>1899</v>
       </c>
       <c r="C128" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D128" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E128" t="s">
         <v>21</v>
@@ -5093,7 +5165,7 @@
         <v>12</v>
       </c>
       <c r="H128" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -5104,10 +5176,10 @@
         <v>763</v>
       </c>
       <c r="C129" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D129" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E129" t="s">
         <v>21</v>
@@ -5119,7 +5191,7 @@
         <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -5130,25 +5202,25 @@
         <v>678</v>
       </c>
       <c r="C130" t="s">
+        <v>337</v>
+      </c>
+      <c r="D130" t="s">
+        <v>317</v>
+      </c>
+      <c r="E130" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" t="s">
         <v>338</v>
       </c>
-      <c r="D130" t="s">
-        <v>318</v>
-      </c>
-      <c r="E130" t="s">
-        <v>21</v>
-      </c>
-      <c r="F130" t="s">
-        <v>7</v>
-      </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
-      <c r="H130" t="s">
+      <c r="I130" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -5159,10 +5231,10 @@
         <v>57</v>
       </c>
       <c r="C131" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D131" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E131" t="s">
         <v>21</v>
@@ -5174,7 +5246,7 @@
         <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5185,10 +5257,10 @@
         <v>56</v>
       </c>
       <c r="C132" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D132" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E132" t="s">
         <v>21</v>
@@ -5200,7 +5272,7 @@
         <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5211,10 +5283,10 @@
         <v>435</v>
       </c>
       <c r="C133" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D133" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E133" t="s">
         <v>21</v>
@@ -5226,65 +5298,65 @@
         <v>12</v>
       </c>
       <c r="H133" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>349</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="C134" t="s">
+        <v>344</v>
+      </c>
+      <c r="D134" t="s">
+        <v>340</v>
+      </c>
+      <c r="E134" t="s">
+        <v>21</v>
+      </c>
+      <c r="F134" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
+        <v>348</v>
+      </c>
+      <c r="I134" s="9" t="s">
         <v>351</v>
-      </c>
-      <c r="C134" t="s">
-        <v>345</v>
-      </c>
-      <c r="D134" t="s">
-        <v>341</v>
-      </c>
-      <c r="E134" t="s">
-        <v>21</v>
-      </c>
-      <c r="F134" t="s">
-        <v>7</v>
-      </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" t="s">
-        <v>349</v>
-      </c>
-      <c r="I134" s="9" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B135" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C135" t="s">
+        <v>345</v>
+      </c>
+      <c r="D135" t="s">
+        <v>340</v>
+      </c>
+      <c r="E135" t="s">
+        <v>21</v>
+      </c>
+      <c r="F135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" t="s">
+        <v>352</v>
+      </c>
+      <c r="I135" s="9" t="s">
         <v>354</v>
-      </c>
-      <c r="C135" t="s">
-        <v>346</v>
-      </c>
-      <c r="D135" t="s">
-        <v>341</v>
-      </c>
-      <c r="E135" t="s">
-        <v>21</v>
-      </c>
-      <c r="F135" t="s">
-        <v>7</v>
-      </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" t="s">
-        <v>353</v>
-      </c>
-      <c r="I135" s="9" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -5295,10 +5367,10 @@
         <v>1851</v>
       </c>
       <c r="C136" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D136" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E136" t="s">
         <v>53</v>
@@ -5314,22 +5386,73 @@
       <c r="A137" t="s">
         <v>5</v>
       </c>
+      <c r="B137" s="4">
+        <v>48</v>
+      </c>
+      <c r="C137" t="s">
+        <v>357</v>
+      </c>
+      <c r="D137" t="s">
+        <v>355</v>
+      </c>
+      <c r="E137" t="s">
+        <v>21</v>
+      </c>
       <c r="F137" t="s">
         <v>7</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" t="s">
+        <v>356</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
+      <c r="B138" s="4">
+        <v>54</v>
+      </c>
+      <c r="C138" t="s">
+        <v>358</v>
+      </c>
+      <c r="D138" t="s">
+        <v>355</v>
+      </c>
+      <c r="E138" t="s">
+        <v>21</v>
+      </c>
       <c r="F138" t="s">
         <v>7</v>
+      </c>
+      <c r="G138" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" t="s">
+        <v>376</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
+      <c r="B139" s="4">
+        <v>73</v>
+      </c>
+      <c r="C139" t="s">
+        <v>359</v>
+      </c>
+      <c r="D139" t="s">
+        <v>355</v>
+      </c>
       <c r="F139" t="s">
         <v>7</v>
       </c>
@@ -5338,6 +5461,15 @@
       <c r="A140" t="s">
         <v>5</v>
       </c>
+      <c r="B140" s="4">
+        <v>202</v>
+      </c>
+      <c r="C140" t="s">
+        <v>360</v>
+      </c>
+      <c r="D140" t="s">
+        <v>361</v>
+      </c>
       <c r="F140" t="s">
         <v>7</v>
       </c>
@@ -5346,6 +5478,15 @@
       <c r="A141" t="s">
         <v>5</v>
       </c>
+      <c r="B141" s="4">
+        <v>66</v>
+      </c>
+      <c r="C141" t="s">
+        <v>362</v>
+      </c>
+      <c r="D141" t="s">
+        <v>361</v>
+      </c>
       <c r="F141" t="s">
         <v>7</v>
       </c>
@@ -5354,6 +5495,15 @@
       <c r="A142" t="s">
         <v>5</v>
       </c>
+      <c r="B142" s="4">
+        <v>50</v>
+      </c>
+      <c r="C142" t="s">
+        <v>363</v>
+      </c>
+      <c r="D142" t="s">
+        <v>361</v>
+      </c>
       <c r="F142" t="s">
         <v>7</v>
       </c>
@@ -5362,6 +5512,15 @@
       <c r="A143" t="s">
         <v>5</v>
       </c>
+      <c r="B143" s="4">
+        <v>43</v>
+      </c>
+      <c r="C143" t="s">
+        <v>364</v>
+      </c>
+      <c r="D143" t="s">
+        <v>361</v>
+      </c>
       <c r="F143" t="s">
         <v>7</v>
       </c>
@@ -5370,6 +5529,12 @@
       <c r="A144" t="s">
         <v>5</v>
       </c>
+      <c r="C144" t="s">
+        <v>365</v>
+      </c>
+      <c r="D144" t="s">
+        <v>361</v>
+      </c>
       <c r="F144" t="s">
         <v>7</v>
       </c>
@@ -5378,6 +5543,15 @@
       <c r="A145" t="s">
         <v>5</v>
       </c>
+      <c r="B145" s="4">
+        <v>136</v>
+      </c>
+      <c r="C145" t="s">
+        <v>366</v>
+      </c>
+      <c r="D145" t="s">
+        <v>361</v>
+      </c>
       <c r="F145" t="s">
         <v>7</v>
       </c>
@@ -5386,6 +5560,15 @@
       <c r="A146" t="s">
         <v>5</v>
       </c>
+      <c r="B146" s="4">
+        <v>191</v>
+      </c>
+      <c r="C146" t="s">
+        <v>368</v>
+      </c>
+      <c r="D146" t="s">
+        <v>367</v>
+      </c>
       <c r="F146" t="s">
         <v>7</v>
       </c>
@@ -5394,6 +5577,15 @@
       <c r="A147" t="s">
         <v>5</v>
       </c>
+      <c r="B147" s="4">
+        <v>338</v>
+      </c>
+      <c r="C147" t="s">
+        <v>369</v>
+      </c>
+      <c r="D147" t="s">
+        <v>367</v>
+      </c>
       <c r="F147" t="s">
         <v>7</v>
       </c>
@@ -5402,6 +5594,15 @@
       <c r="A148" t="s">
         <v>5</v>
       </c>
+      <c r="B148" s="4">
+        <v>190</v>
+      </c>
+      <c r="C148" t="s">
+        <v>370</v>
+      </c>
+      <c r="D148" t="s">
+        <v>367</v>
+      </c>
       <c r="F148" t="s">
         <v>7</v>
       </c>
@@ -5410,6 +5611,15 @@
       <c r="A149" t="s">
         <v>5</v>
       </c>
+      <c r="B149" s="4">
+        <v>268</v>
+      </c>
+      <c r="C149" t="s">
+        <v>371</v>
+      </c>
+      <c r="D149" t="s">
+        <v>367</v>
+      </c>
       <c r="F149" t="s">
         <v>7</v>
       </c>
@@ -5418,6 +5628,15 @@
       <c r="A150" t="s">
         <v>5</v>
       </c>
+      <c r="B150" s="4">
+        <v>371</v>
+      </c>
+      <c r="C150" t="s">
+        <v>372</v>
+      </c>
+      <c r="D150" t="s">
+        <v>367</v>
+      </c>
       <c r="F150" t="s">
         <v>7</v>
       </c>
@@ -5425,6 +5644,15 @@
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
+      </c>
+      <c r="B151" s="4">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>373</v>
+      </c>
+      <c r="D151" t="s">
+        <v>367</v>
       </c>
       <c r="F151" t="s">
         <v>7</v>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9BD1A9-FA9A-4C9E-A8AC-2C47A3CABE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0246FF9E-E1B3-4819-A169-5B3BCF6210F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="393">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -1171,6 +1171,51 @@
   </si>
   <si>
     <t>Trick is to have 4 pointers.</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>3 possible solutions, each with different space complexities.</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>Divide and Conquer with Recursion.</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>Need to learn how to do long multiplication like I did back in school.</t>
+  </si>
+  <si>
+    <t>Need to learn how to do long detect ication like I did back es school.</t>
+  </si>
+  <si>
+    <t>Need to learn how to do long single ication like I did back mb school.</t>
+  </si>
+  <si>
+    <t>Need to learn how to do long number ication like I did back Bi school.</t>
+  </si>
+  <si>
+    <t>Need to learn how to do long countinication like I did back Bi school.</t>
+  </si>
+  <si>
+    <t>Need to learn how to do long reverseication like I did back Bi school.</t>
+  </si>
+  <si>
+    <t>Need to learn how to do long missingication like I did back er school.</t>
+  </si>
+  <si>
+    <t>Need to learn how to do long sum of ication like I did back nt school.</t>
+  </si>
+  <si>
+    <t>Need to learn how to do long reverseication like I did back ge school.</t>
   </si>
 </sst>
 </file>
@@ -1610,8 +1655,8 @@
   <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I141" sqref="I141"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5453,8 +5498,20 @@
       <c r="D139" t="s">
         <v>355</v>
       </c>
+      <c r="E139" t="s">
+        <v>21</v>
+      </c>
       <c r="F139" t="s">
         <v>7</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" t="s">
+        <v>378</v>
+      </c>
+      <c r="I139" s="5" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -5470,8 +5527,17 @@
       <c r="D140" t="s">
         <v>361</v>
       </c>
+      <c r="E140" t="s">
+        <v>6</v>
+      </c>
       <c r="F140" t="s">
         <v>7</v>
+      </c>
+      <c r="G140" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -5487,8 +5553,17 @@
       <c r="D141" t="s">
         <v>361</v>
       </c>
+      <c r="E141" t="s">
+        <v>6</v>
+      </c>
       <c r="F141" t="s">
         <v>7</v>
+      </c>
+      <c r="G141" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -5504,8 +5579,20 @@
       <c r="D142" t="s">
         <v>361</v>
       </c>
+      <c r="E142" t="s">
+        <v>21</v>
+      </c>
       <c r="F142" t="s">
         <v>7</v>
+      </c>
+      <c r="G142" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" t="s">
+        <v>381</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -5521,20 +5608,38 @@
       <c r="D143" t="s">
         <v>361</v>
       </c>
+      <c r="E143" t="s">
+        <v>21</v>
+      </c>
       <c r="F143" t="s">
         <v>7</v>
+      </c>
+      <c r="G143" t="s">
+        <v>51</v>
+      </c>
+      <c r="H143" t="s">
+        <v>383</v>
+      </c>
+      <c r="I143" s="5" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
+      <c r="B144" s="4">
+        <v>2013</v>
+      </c>
       <c r="C144" t="s">
         <v>365</v>
       </c>
       <c r="D144" t="s">
         <v>361</v>
       </c>
+      <c r="E144" t="s">
+        <v>21</v>
+      </c>
       <c r="F144" t="s">
         <v>7</v>
       </c>
@@ -5550,7 +5655,10 @@
         <v>366</v>
       </c>
       <c r="D145" t="s">
-        <v>361</v>
+        <v>367</v>
+      </c>
+      <c r="E145" t="s">
+        <v>6</v>
       </c>
       <c r="F145" t="s">
         <v>7</v>

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0246FF9E-E1B3-4819-A169-5B3BCF6210F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053D0EA3-3F2A-4A46-A862-610B8E3C6D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="387">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -1194,28 +1194,10 @@
     <t>Need to learn how to do long multiplication like I did back in school.</t>
   </si>
   <si>
-    <t>Need to learn how to do long detect ication like I did back es school.</t>
-  </si>
-  <si>
-    <t>Need to learn how to do long single ication like I did back mb school.</t>
-  </si>
-  <si>
-    <t>Need to learn how to do long number ication like I did back Bi school.</t>
-  </si>
-  <si>
-    <t>Need to learn how to do long countinication like I did back Bi school.</t>
-  </si>
-  <si>
-    <t>Need to learn how to do long reverseication like I did back Bi school.</t>
-  </si>
-  <si>
-    <t>Need to learn how to do long missingication like I did back er school.</t>
-  </si>
-  <si>
-    <t>Need to learn how to do long sum of ication like I did back nt school.</t>
-  </si>
-  <si>
-    <t>Need to learn how to do long reverseication like I did back ge school.</t>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>Trick is to work off of the diagonal.</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1637,7 @@
   <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
@@ -5643,6 +5625,15 @@
       <c r="F144" t="s">
         <v>7</v>
       </c>
+      <c r="G144" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" t="s">
+        <v>385</v>
+      </c>
+      <c r="I144" s="5" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053D0EA3-3F2A-4A46-A862-610B8E3C6D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C91781-1F3A-42D4-A8EB-7E67B4665D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="394">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -1198,6 +1198,27 @@
   </si>
   <si>
     <t>Trick is to work off of the diagonal.</t>
+  </si>
+  <si>
+    <t>XOR does the job.</t>
+  </si>
+  <si>
+    <t>Modding by 2 and bitshifting to the right.</t>
+  </si>
+  <si>
+    <t>22/09/2025</t>
+  </si>
+  <si>
+    <t>DP used with Binary representation of numbers with increasing offset for O(n) solution.</t>
+  </si>
+  <si>
+    <t>Clever bit shifting and anding and oring combo.</t>
+  </si>
+  <si>
+    <t>Clever num shifting and anding and oring combo.</t>
+  </si>
+  <si>
+    <t>Clever int shifting and anding and oring combo.</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1659,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I145" sqref="I145"/>
+      <selection pane="bottomLeft" activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5654,6 +5675,15 @@
       <c r="F145" t="s">
         <v>7</v>
       </c>
+      <c r="G145" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" t="s">
+        <v>385</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
@@ -5668,8 +5698,20 @@
       <c r="D146" t="s">
         <v>367</v>
       </c>
+      <c r="E146" t="s">
+        <v>6</v>
+      </c>
       <c r="F146" t="s">
         <v>7</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" t="s">
+        <v>385</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5685,8 +5727,20 @@
       <c r="D147" t="s">
         <v>367</v>
       </c>
+      <c r="E147" t="s">
+        <v>6</v>
+      </c>
       <c r="F147" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" t="s">
+        <v>389</v>
+      </c>
+      <c r="I147" s="5" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5702,8 +5756,20 @@
       <c r="D148" t="s">
         <v>367</v>
       </c>
+      <c r="E148" t="s">
+        <v>6</v>
+      </c>
       <c r="F148" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="G148" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" t="s">
+        <v>389</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">

--- a/docs/Programming Puzzles.xlsx
+++ b/docs/Programming Puzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\ProjectDSA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C91781-1F3A-42D4-A8EB-7E67B4665D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46C6958-4A4B-472E-9CE9-3BB7F6E68541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B7950DC0-5F1E-48EF-9340-8CAB6CE423A3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="394">
   <si>
     <t>PLATFORM</t>
   </si>
@@ -795,9 +795,6 @@
     <t>Can use DFS. Can also use Union Find.</t>
   </si>
   <si>
-    <t>Leetcode (Premium), Lintcode</t>
-  </si>
-  <si>
     <t>Sliding Window</t>
   </si>
   <si>
@@ -1215,10 +1212,13 @@
     <t>Clever bit shifting and anding and oring combo.</t>
   </si>
   <si>
-    <t>Clever num shifting and anding and oring combo.</t>
-  </si>
-  <si>
-    <t>Clever int shifting and anding and oring combo.</t>
+    <t>23/09/2025</t>
+  </si>
+  <si>
+    <t>LANGUAGES</t>
+  </si>
+  <si>
+    <t>Python</t>
   </si>
 </sst>
 </file>
@@ -1655,27 +1655,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F6333-ADD2-4F62-82FC-3789A0207F8D}">
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I144" sqref="I144"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="52.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="92.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="92.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1695,16 +1696,19 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1724,13 +1728,16 @@
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1750,13 +1757,16 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1776,13 +1786,16 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1802,13 +1815,16 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1819,7 +1835,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -1828,16 +1844,19 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1857,13 +1876,16 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1883,16 +1905,19 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1912,16 +1937,19 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1941,16 +1969,19 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1970,16 +2001,19 @@
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1999,16 +2033,19 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2028,16 +2065,19 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
+        <v>393</v>
+      </c>
+      <c r="H13" t="s">
         <v>51</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2057,13 +2097,16 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2083,16 +2126,19 @@
         <v>7</v>
       </c>
       <c r="G15" t="s">
+        <v>393</v>
+      </c>
+      <c r="H15" t="s">
         <v>51</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2112,13 +2158,16 @@
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2129,7 +2178,7 @@
         <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -2138,16 +2187,19 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
+        <v>393</v>
+      </c>
+      <c r="H17" t="s">
         <v>51</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2158,7 +2210,7 @@
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -2167,16 +2219,19 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2187,7 +2242,7 @@
         <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -2196,16 +2251,19 @@
         <v>7</v>
       </c>
       <c r="G19" t="s">
+        <v>393</v>
+      </c>
+      <c r="H19" t="s">
         <v>51</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2216,7 +2274,7 @@
         <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E20" t="s">
         <v>53</v>
@@ -2225,16 +2283,19 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
+        <v>393</v>
+      </c>
+      <c r="H20" t="s">
         <v>51</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>66</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2245,7 +2306,7 @@
         <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E21" t="s">
         <v>53</v>
@@ -2254,16 +2315,19 @@
         <v>7</v>
       </c>
       <c r="G21" t="s">
+        <v>393</v>
+      </c>
+      <c r="H21" t="s">
         <v>51</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2283,16 +2347,19 @@
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -2312,16 +2379,19 @@
         <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2341,16 +2411,19 @@
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -2370,16 +2443,19 @@
         <v>7</v>
       </c>
       <c r="G25" t="s">
+        <v>393</v>
+      </c>
+      <c r="H25" t="s">
         <v>51</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2399,13 +2475,16 @@
         <v>7</v>
       </c>
       <c r="G26" t="s">
+        <v>393</v>
+      </c>
+      <c r="H26" t="s">
         <v>51</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2425,16 +2504,19 @@
         <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
         <v>87</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2454,16 +2536,19 @@
         <v>7</v>
       </c>
       <c r="G28" t="s">
+        <v>393</v>
+      </c>
+      <c r="H28" t="s">
         <v>51</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>90</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -2483,16 +2568,19 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
         <v>92</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2512,16 +2600,19 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="J30" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2541,16 +2632,19 @@
         <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="J31" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2570,16 +2664,19 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
+        <v>393</v>
+      </c>
+      <c r="H32" t="s">
         <v>51</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>99</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -2599,16 +2696,19 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
         <v>99</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -2628,16 +2728,19 @@
         <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
         <v>104</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2656,14 +2759,14 @@
       <c r="F35" t="s">
         <v>7</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>106</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="J35" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2683,16 +2786,19 @@
         <v>7</v>
       </c>
       <c r="G36" t="s">
+        <v>393</v>
+      </c>
+      <c r="H36" t="s">
         <v>51</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>104</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="J36" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -2712,16 +2818,19 @@
         <v>7</v>
       </c>
       <c r="G37" t="s">
+        <v>393</v>
+      </c>
+      <c r="H37" t="s">
         <v>51</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2741,16 +2850,19 @@
         <v>7</v>
       </c>
       <c r="G38" t="s">
+        <v>393</v>
+      </c>
+      <c r="H38" t="s">
         <v>51</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>112</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="J38" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2770,16 +2882,19 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
+        <v>393</v>
+      </c>
+      <c r="H39" t="s">
         <v>51</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>117</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="J39" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2799,13 +2914,16 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
+        <v>393</v>
+      </c>
+      <c r="H40" t="s">
         <v>51</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -2825,16 +2943,19 @@
         <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
         <v>122</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="J41" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -2854,16 +2975,19 @@
         <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
         <v>130</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="J42" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2883,16 +3007,19 @@
         <v>7</v>
       </c>
       <c r="G43" t="s">
+        <v>393</v>
+      </c>
+      <c r="H43" t="s">
         <v>51</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>129</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="J43" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2912,13 +3039,16 @@
         <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2934,11 +3064,11 @@
       <c r="F45" t="s">
         <v>7</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2954,11 +3084,11 @@
       <c r="F46" t="s">
         <v>7</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2978,13 +3108,16 @@
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -3004,16 +3137,19 @@
         <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s">
         <v>133</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="J48" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -3033,16 +3169,19 @@
         <v>7</v>
       </c>
       <c r="G49" t="s">
+        <v>393</v>
+      </c>
+      <c r="H49" t="s">
         <v>51</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>142</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="J49" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -3062,16 +3201,19 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
+        <v>393</v>
+      </c>
+      <c r="H50" t="s">
         <v>51</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>144</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="J50" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -3091,16 +3233,19 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" t="s">
         <v>146</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="J51" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -3120,16 +3265,19 @@
         <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H52" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" t="s">
         <v>148</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="J52" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -3149,16 +3297,19 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H53" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" t="s">
         <v>151</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="J53" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -3178,16 +3329,19 @@
         <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
         <v>151</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="J54" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -3207,16 +3361,19 @@
         <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s">
         <v>151</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="J55" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -3236,16 +3393,19 @@
         <v>7</v>
       </c>
       <c r="G56" t="s">
+        <v>393</v>
+      </c>
+      <c r="H56" t="s">
         <v>51</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>158</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="J56" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -3265,13 +3425,16 @@
         <v>7</v>
       </c>
       <c r="G57" t="s">
+        <v>393</v>
+      </c>
+      <c r="H57" t="s">
         <v>51</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -3291,16 +3454,19 @@
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" t="s">
         <v>160</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="J58" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -3320,16 +3486,19 @@
         <v>7</v>
       </c>
       <c r="G59" t="s">
+        <v>393</v>
+      </c>
+      <c r="H59" t="s">
         <v>51</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>168</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="J59" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -3348,11 +3517,11 @@
       <c r="F60" t="s">
         <v>7</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -3371,11 +3540,11 @@
       <c r="F61" t="s">
         <v>7</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -3395,16 +3564,19 @@
         <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" t="s">
         <v>168</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="J62" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -3424,16 +3596,19 @@
         <v>40</v>
       </c>
       <c r="G63" t="s">
+        <v>393</v>
+      </c>
+      <c r="H63" t="s">
         <v>51</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>172</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="J63" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -3449,11 +3624,11 @@
       <c r="F64" t="s">
         <v>7</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -3473,16 +3648,19 @@
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
         <v>177</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="J65" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -3502,16 +3680,19 @@
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" t="s">
         <v>181</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="J66" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -3531,16 +3712,19 @@
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" t="s">
         <v>181</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="J67" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -3560,16 +3744,19 @@
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" t="s">
         <v>186</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="J68" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -3589,16 +3776,19 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H69" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" t="s">
         <v>191</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -3618,16 +3808,19 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H70" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" t="s">
         <v>195</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="J70" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -3646,14 +3839,14 @@
       <c r="F71" t="s">
         <v>7</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>106</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="J71" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -3673,16 +3866,19 @@
         <v>7</v>
       </c>
       <c r="G72" t="s">
+        <v>393</v>
+      </c>
+      <c r="H72" t="s">
         <v>51</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>195</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="J72" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -3702,16 +3898,19 @@
         <v>40</v>
       </c>
       <c r="G73" t="s">
+        <v>393</v>
+      </c>
+      <c r="H73" t="s">
         <v>51</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>195</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="J73" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -3731,16 +3930,19 @@
         <v>7</v>
       </c>
       <c r="G74" t="s">
+        <v>393</v>
+      </c>
+      <c r="H74" t="s">
         <v>51</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>204</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="J74" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -3760,16 +3962,19 @@
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H75" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" t="s">
         <v>204</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="J75" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -3789,16 +3994,19 @@
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H76" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" t="s">
         <v>209</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="J76" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -3818,13 +4026,16 @@
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H77" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -3844,16 +4055,19 @@
         <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" t="s">
         <v>213</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="J78" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -3873,16 +4087,19 @@
         <v>7</v>
       </c>
       <c r="G79" t="s">
+        <v>393</v>
+      </c>
+      <c r="H79" t="s">
         <v>51</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>226</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="J79" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -3901,11 +4118,11 @@
       <c r="F80" t="s">
         <v>7</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -3925,16 +4142,19 @@
         <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H81" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" t="s">
         <v>228</v>
       </c>
-      <c r="I81" s="5" t="s">
+      <c r="J81" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -3954,16 +4174,19 @@
         <v>7</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H82" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" t="s">
         <v>230</v>
       </c>
-      <c r="I82" s="5" t="s">
+      <c r="J82" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -3983,16 +4206,19 @@
         <v>7</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H83" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" t="s">
         <v>230</v>
       </c>
-      <c r="I83" s="5" t="s">
+      <c r="J83" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -4012,16 +4238,19 @@
         <v>7</v>
       </c>
       <c r="G84" t="s">
+        <v>393</v>
+      </c>
+      <c r="H84" t="s">
         <v>51</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>233</v>
       </c>
-      <c r="I84" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -4041,16 +4270,19 @@
         <v>7</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H85" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" t="s">
         <v>234</v>
       </c>
-      <c r="I85" s="5" t="s">
+      <c r="J85" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -4070,13 +4302,16 @@
         <v>7</v>
       </c>
       <c r="G86" t="s">
+        <v>393</v>
+      </c>
+      <c r="H86" t="s">
         <v>51</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -4096,16 +4331,19 @@
         <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H87" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" t="s">
         <v>236</v>
       </c>
-      <c r="I87" s="5" t="s">
+      <c r="J87" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -4125,16 +4363,19 @@
         <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H88" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" t="s">
         <v>238</v>
       </c>
-      <c r="I88" s="5" t="s">
+      <c r="J88" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -4154,16 +4395,19 @@
         <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H89" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" t="s">
         <v>242</v>
       </c>
-      <c r="I89" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -4183,16 +4427,19 @@
         <v>7</v>
       </c>
       <c r="G90" t="s">
+        <v>393</v>
+      </c>
+      <c r="H90" t="s">
         <v>51</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>242</v>
       </c>
-      <c r="I90" s="5" t="s">
+      <c r="J90" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -4212,18 +4459,21 @@
         <v>40</v>
       </c>
       <c r="G91" t="s">
+        <v>393</v>
+      </c>
+      <c r="H91" t="s">
         <v>51</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>245</v>
       </c>
-      <c r="I91" s="5" t="s">
+      <c r="J91" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>252</v>
+        <v>348</v>
       </c>
       <c r="B92" s="4">
         <v>261</v>
@@ -4241,16 +4491,19 @@
         <v>40</v>
       </c>
       <c r="G92" t="s">
+        <v>393</v>
+      </c>
+      <c r="H92" t="s">
         <v>51</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>250</v>
       </c>
-      <c r="I92" s="5" t="s">
+      <c r="J92" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -4258,7 +4511,7 @@
         <v>127</v>
       </c>
       <c r="C93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D93" t="s">
         <v>218</v>
@@ -4269,11 +4522,11 @@
       <c r="F93" t="s">
         <v>7</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -4281,7 +4534,7 @@
         <v>332</v>
       </c>
       <c r="C94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D94" t="s">
         <v>218</v>
@@ -4292,11 +4545,11 @@
       <c r="F94" t="s">
         <v>7</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -4304,7 +4557,7 @@
         <v>1584</v>
       </c>
       <c r="C95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D95" t="s">
         <v>218</v>
@@ -4316,16 +4569,19 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H95" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" t="s">
+        <v>257</v>
+      </c>
+      <c r="J95" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I95" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -4333,7 +4589,7 @@
         <v>743</v>
       </c>
       <c r="C96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D96" t="s">
         <v>218</v>
@@ -4345,16 +4601,19 @@
         <v>7</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H96" t="s">
-        <v>262</v>
-      </c>
-      <c r="I96" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -4362,7 +4621,7 @@
         <v>778</v>
       </c>
       <c r="C97" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D97" t="s">
         <v>218</v>
@@ -4373,11 +4632,11 @@
       <c r="F97" t="s">
         <v>7</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -4385,7 +4644,7 @@
         <v>269</v>
       </c>
       <c r="C98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D98" t="s">
         <v>218</v>
@@ -4396,11 +4655,11 @@
       <c r="F98" t="s">
         <v>7</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -4408,7 +4667,7 @@
         <v>787</v>
       </c>
       <c r="C99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D99" t="s">
         <v>218</v>
@@ -4420,16 +4679,19 @@
         <v>7</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H99" t="s">
-        <v>266</v>
-      </c>
-      <c r="I99" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I99" t="s">
+        <v>265</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -4437,10 +4699,10 @@
         <v>70</v>
       </c>
       <c r="C100" t="s">
+        <v>268</v>
+      </c>
+      <c r="D100" t="s">
         <v>269</v>
-      </c>
-      <c r="D100" t="s">
-        <v>270</v>
       </c>
       <c r="E100" t="s">
         <v>6</v>
@@ -4449,16 +4711,19 @@
         <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H100" t="s">
-        <v>271</v>
-      </c>
-      <c r="I100" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I100" t="s">
+        <v>270</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -4466,10 +4731,10 @@
         <v>746</v>
       </c>
       <c r="C101" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D101" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E101" t="s">
         <v>6</v>
@@ -4478,16 +4743,19 @@
         <v>7</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H101" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" t="s">
+        <v>272</v>
+      </c>
+      <c r="J101" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="I101" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -4495,10 +4763,10 @@
         <v>198</v>
       </c>
       <c r="C102" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D102" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E102" t="s">
         <v>21</v>
@@ -4507,16 +4775,19 @@
         <v>7</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H102" t="s">
-        <v>273</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I102" t="s">
+        <v>272</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -4524,10 +4795,10 @@
         <v>213</v>
       </c>
       <c r="C103" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D103" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E103" t="s">
         <v>21</v>
@@ -4536,27 +4807,30 @@
         <v>7</v>
       </c>
       <c r="G103" t="s">
+        <v>393</v>
+      </c>
+      <c r="H103" t="s">
         <v>51</v>
       </c>
-      <c r="H103" t="s">
-        <v>284</v>
-      </c>
-      <c r="I103" s="5" t="s">
+      <c r="I103" t="s">
+        <v>283</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="4">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" s="4">
-        <v>5</v>
-      </c>
-      <c r="C104" t="s">
-        <v>281</v>
-      </c>
       <c r="D104" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E104" t="s">
         <v>21</v>
@@ -4565,16 +4839,19 @@
         <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H104" t="s">
-        <v>284</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I104" t="s">
+        <v>283</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -4582,10 +4859,10 @@
         <v>647</v>
       </c>
       <c r="C105" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D105" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E105" t="s">
         <v>21</v>
@@ -4594,13 +4871,16 @@
         <v>40</v>
       </c>
       <c r="G105" t="s">
+        <v>393</v>
+      </c>
+      <c r="H105" t="s">
         <v>51</v>
       </c>
-      <c r="H105" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -4608,28 +4888,31 @@
         <v>91</v>
       </c>
       <c r="C106" t="s">
+        <v>284</v>
+      </c>
+      <c r="D106" t="s">
+        <v>269</v>
+      </c>
+      <c r="E106" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" t="s">
+        <v>393</v>
+      </c>
+      <c r="H106" t="s">
+        <v>51</v>
+      </c>
+      <c r="I106" t="s">
         <v>285</v>
       </c>
-      <c r="D106" t="s">
-        <v>270</v>
-      </c>
-      <c r="E106" t="s">
-        <v>21</v>
-      </c>
-      <c r="F106" t="s">
-        <v>7</v>
-      </c>
-      <c r="G106" t="s">
-        <v>51</v>
-      </c>
-      <c r="H106" t="s">
-        <v>286</v>
-      </c>
-      <c r="I106" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -4637,28 +4920,31 @@
         <v>322</v>
       </c>
       <c r="C107" t="s">
+        <v>286</v>
+      </c>
+      <c r="D107" t="s">
+        <v>269</v>
+      </c>
+      <c r="E107" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
+      <c r="G107" t="s">
+        <v>393</v>
+      </c>
+      <c r="H107" t="s">
+        <v>51</v>
+      </c>
+      <c r="I107" t="s">
         <v>287</v>
       </c>
-      <c r="D107" t="s">
-        <v>270</v>
-      </c>
-      <c r="E107" t="s">
-        <v>21</v>
-      </c>
-      <c r="F107" t="s">
-        <v>7</v>
-      </c>
-      <c r="G107" t="s">
-        <v>51</v>
-      </c>
-      <c r="H107" t="s">
-        <v>288</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -4666,28 +4952,31 @@
         <v>152</v>
       </c>
       <c r="C108" t="s">
+        <v>290</v>
+      </c>
+      <c r="D108" t="s">
+        <v>269</v>
+      </c>
+      <c r="E108" t="s">
+        <v>21</v>
+      </c>
+      <c r="F108" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" t="s">
+        <v>393</v>
+      </c>
+      <c r="H108" t="s">
+        <v>51</v>
+      </c>
+      <c r="I108" t="s">
         <v>291</v>
       </c>
-      <c r="D108" t="s">
-        <v>270</v>
-      </c>
-      <c r="E108" t="s">
-        <v>21</v>
-      </c>
-      <c r="F108" t="s">
-        <v>7</v>
-      </c>
-      <c r="G108" t="s">
-        <v>51</v>
-      </c>
-      <c r="H108" t="s">
+      <c r="J108" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="I108" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -4695,28 +4984,31 @@
         <v>139</v>
       </c>
       <c r="C109" t="s">
+        <v>293</v>
+      </c>
+      <c r="D109" t="s">
+        <v>269</v>
+      </c>
+      <c r="E109" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" t="s">
+        <v>393</v>
+      </c>
+      <c r="H109" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" t="s">
         <v>294</v>
       </c>
-      <c r="D109" t="s">
-        <v>270</v>
-      </c>
-      <c r="E109" t="s">
-        <v>21</v>
-      </c>
-      <c r="F109" t="s">
-        <v>7</v>
-      </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="J109" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="I109" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -4724,10 +5016,10 @@
         <v>300</v>
       </c>
       <c r="C110" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D110" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E110" t="s">
         <v>21</v>
@@ -4736,16 +5028,19 @@
         <v>7</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H110" t="s">
-        <v>295</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I110" t="s">
+        <v>294</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -4753,10 +5048,10 @@
         <v>416</v>
       </c>
       <c r="C111" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D111" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E111" t="s">
         <v>21</v>
@@ -4765,13 +5060,16 @@
         <v>7</v>
       </c>
       <c r="G111" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H111" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I111" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -4779,10 +5077,10 @@
         <v>62</v>
       </c>
       <c r="C112" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D112" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E112" t="s">
         <v>21</v>
@@ -4791,13 +5089,16 @@
         <v>7</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H112" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I112" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -4805,10 +5106,10 @@
         <v>1143</v>
       </c>
       <c r="C113" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E113" t="s">
         <v>21</v>
@@ -4817,13 +5118,16 @@
         <v>7</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H113" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I113" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -4831,10 +5135,10 @@
         <v>309</v>
       </c>
       <c r="C114" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D114" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E114" t="s">
         <v>21</v>
@@ -4843,16 +5147,19 @@
         <v>7</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H114" t="s">
-        <v>319</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I114" t="s">
+        <v>318</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -4860,10 +5167,10 @@
         <v>518</v>
       </c>
       <c r="C115" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D115" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E115" t="s">
         <v>21</v>
@@ -4872,16 +5179,19 @@
         <v>7</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H115" t="s">
-        <v>318</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I115" t="s">
+        <v>317</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -4889,10 +5199,10 @@
         <v>494</v>
       </c>
       <c r="C116" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D116" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E116" t="s">
         <v>21</v>
@@ -4901,16 +5211,19 @@
         <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" t="s">
+        <v>320</v>
+      </c>
+      <c r="J116" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="I116" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -4918,10 +5231,10 @@
         <v>97</v>
       </c>
       <c r="C117" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D117" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E117" t="s">
         <v>21</v>
@@ -4930,16 +5243,19 @@
         <v>7</v>
       </c>
       <c r="G117" t="s">
+        <v>393</v>
+      </c>
+      <c r="H117" t="s">
         <v>51</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
+        <v>322</v>
+      </c>
+      <c r="J117" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="I117" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -4947,10 +5263,10 @@
         <v>329</v>
       </c>
       <c r="C118" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D118" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E118" t="s">
         <v>53</v>
@@ -4958,11 +5274,11 @@
       <c r="F118" t="s">
         <v>7</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -4970,10 +5286,10 @@
         <v>115</v>
       </c>
       <c r="C119" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D119" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E119" t="s">
         <v>53</v>
@@ -4981,11 +5297,11 @@
       <c r="F119" t="s">
         <v>7</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -4993,10 +5309,10 @@
         <v>72</v>
       </c>
       <c r="C120" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D120" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E120" t="s">
         <v>53</v>
@@ -5004,11 +5320,11 @@
       <c r="F120" t="s">
         <v>7</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -5016,10 +5332,10 @@
         <v>312</v>
       </c>
       <c r="C121" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D121" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E121" t="s">
         <v>53</v>
@@ -5027,11 +5343,11 @@
       <c r="F121" t="s">
         <v>7</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -5039,10 +5355,10 @@
         <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E122" t="s">
         <v>53</v>
@@ -5050,11 +5366,11 @@
       <c r="F122" t="s">
         <v>7</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -5062,10 +5378,10 @@
         <v>53</v>
       </c>
       <c r="C123" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D123" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E123" t="s">
         <v>21</v>
@@ -5074,13 +5390,16 @@
         <v>7</v>
       </c>
       <c r="G123" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H123" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I123" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -5088,11 +5407,11 @@
         <v>55</v>
       </c>
       <c r="C124" t="s">
+        <v>315</v>
+      </c>
+      <c r="D124" t="s">
         <v>316</v>
       </c>
-      <c r="D124" t="s">
-        <v>317</v>
-      </c>
       <c r="E124" t="s">
         <v>21</v>
       </c>
@@ -5100,13 +5419,16 @@
         <v>7</v>
       </c>
       <c r="G124" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H124" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I124" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -5114,28 +5436,31 @@
         <v>45</v>
       </c>
       <c r="C125" t="s">
+        <v>325</v>
+      </c>
+      <c r="D125" t="s">
+        <v>316</v>
+      </c>
+      <c r="E125" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" t="s">
+        <v>393</v>
+      </c>
+      <c r="H125" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" t="s">
         <v>326</v>
       </c>
-      <c r="D125" t="s">
-        <v>317</v>
-      </c>
-      <c r="E125" t="s">
-        <v>21</v>
-      </c>
-      <c r="F125" t="s">
-        <v>7</v>
-      </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" t="s">
+      <c r="J125" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="I125" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -5143,25 +5468,28 @@
         <v>134</v>
       </c>
       <c r="C126" t="s">
+        <v>328</v>
+      </c>
+      <c r="D126" t="s">
+        <v>316</v>
+      </c>
+      <c r="E126" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" t="s">
+        <v>7</v>
+      </c>
+      <c r="G126" t="s">
+        <v>393</v>
+      </c>
+      <c r="H126" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" t="s">
         <v>329</v>
       </c>
-      <c r="D126" t="s">
-        <v>317</v>
-      </c>
-      <c r="E126" t="s">
-        <v>21</v>
-      </c>
-      <c r="F126" t="s">
-        <v>7</v>
-      </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
-      <c r="H126" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -5169,10 +5497,10 @@
         <v>846</v>
       </c>
       <c r="C127" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D127" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E127" t="s">
         <v>21</v>
@@ -5181,16 +5509,19 @@
         <v>7</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H127" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" t="s">
+        <v>333</v>
+      </c>
+      <c r="J127" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="I127" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -5198,10 +5529,10 @@
         <v>1899</v>
       </c>
       <c r="C128" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D128" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E128" t="s">
         <v>21</v>
@@ -5210,13 +5541,16 @@
         <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H128" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I128" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -5224,10 +5558,10 @@
         <v>763</v>
       </c>
       <c r="C129" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D129" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E129" t="s">
         <v>21</v>
@@ -5236,13 +5570,16 @@
         <v>7</v>
       </c>
       <c r="G129" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H129" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I129" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -5250,28 +5587,31 @@
         <v>678</v>
       </c>
       <c r="C130" t="s">
+        <v>336</v>
+      </c>
+      <c r="D130" t="s">
+        <v>316</v>
+      </c>
+      <c r="E130" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130" t="s">
+        <v>393</v>
+      </c>
+      <c r="H130" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" t="s">
         <v>337</v>
       </c>
-      <c r="D130" t="s">
-        <v>317</v>
-      </c>
-      <c r="E130" t="s">
-        <v>21</v>
-      </c>
-      <c r="F130" t="s">
-        <v>7</v>
-      </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
-      <c r="H130" t="s">
+      <c r="J130" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="I130" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -5279,10 +5619,10 @@
         <v>57</v>
       </c>
       <c r="C131" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D131" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E131" t="s">
         <v>21</v>
@@ -5291,13 +5631,16 @@
         <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H131" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I131" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -5305,10 +5648,10 @@
         <v>56</v>
       </c>
       <c r="C132" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D132" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E132" t="s">
         <v>21</v>
@@ -5317,13 +5660,16 @@
         <v>7</v>
       </c>
       <c r="G132" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H132" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I132" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -5331,10 +5677,10 @@
         <v>435</v>
       </c>
       <c r="C133" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D133" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E133" t="s">
         <v>21</v>
@@ -5343,71 +5689,80 @@
         <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H133" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B134" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="C134" t="s">
+        <v>343</v>
+      </c>
+      <c r="D134" t="s">
+        <v>339</v>
+      </c>
+      <c r="E134" t="s">
+        <v>21</v>
+      </c>
+      <c r="F134" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" t="s">
+        <v>393</v>
+      </c>
+      <c r="H134" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" t="s">
+        <v>347</v>
+      </c>
+      <c r="J134" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="C134" t="s">
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>348</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C135" t="s">
         <v>344</v>
       </c>
-      <c r="D134" t="s">
-        <v>340</v>
-      </c>
-      <c r="E134" t="s">
-        <v>21</v>
-      </c>
-      <c r="F134" t="s">
-        <v>7</v>
-      </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" t="s">
-        <v>348</v>
-      </c>
-      <c r="I134" s="9" t="s">
+      <c r="D135" t="s">
+        <v>339</v>
+      </c>
+      <c r="E135" t="s">
+        <v>21</v>
+      </c>
+      <c r="F135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" t="s">
+        <v>393</v>
+      </c>
+      <c r="H135" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>349</v>
-      </c>
-      <c r="B135" s="4" t="s">
+      <c r="J135" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="C135" t="s">
-        <v>345</v>
-      </c>
-      <c r="D135" t="s">
-        <v>340</v>
-      </c>
-      <c r="E135" t="s">
-        <v>21</v>
-      </c>
-      <c r="F135" t="s">
-        <v>7</v>
-      </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" t="s">
-        <v>352</v>
-      </c>
-      <c r="I135" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -5415,10 +5770,10 @@
         <v>1851</v>
       </c>
       <c r="C136" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D136" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E136" t="s">
         <v>53</v>
@@ -5426,11 +5781,11 @@
       <c r="F136" t="s">
         <v>7</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -5438,28 +5793,31 @@
         <v>48</v>
       </c>
       <c r="C137" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D137" t="s">
+        <v>354</v>
+      </c>
+      <c r="E137" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137" t="s">
+        <v>7</v>
+      </c>
+      <c r="G137" t="s">
+        <v>393</v>
+      </c>
+      <c r="H137" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" t="s">
         <v>355</v>
       </c>
-      <c r="E137" t="s">
-        <v>21</v>
-      </c>
-      <c r="F137" t="s">
-        <v>7</v>
-      </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
-      <c r="H137" t="s">
-        <v>356</v>
-      </c>
-      <c r="I137" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -5467,10 +5825,10 @@
         <v>54</v>
       </c>
       <c r="C138" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E138" t="s">
         <v>21</v>
@@ -5479,16 +5837,19 @@
         <v>7</v>
       </c>
       <c r="G138" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H138" t="s">
+        <v>12</v>
+      </c>
+      <c r="I138" t="s">
+        <v>375</v>
+      </c>
+      <c r="J138" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="I138" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -5496,10 +5857,10 @@
         <v>73</v>
       </c>
       <c r="C139" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D139" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E139" t="s">
         <v>21</v>
@@ -5508,16 +5869,19 @@
         <v>7</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H139" t="s">
+        <v>12</v>
+      </c>
+      <c r="I139" t="s">
+        <v>377</v>
+      </c>
+      <c r="J139" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="I139" s="5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -5525,10 +5889,10 @@
         <v>202</v>
       </c>
       <c r="C140" t="s">
+        <v>359</v>
+      </c>
+      <c r="D140" t="s">
         <v>360</v>
-      </c>
-      <c r="D140" t="s">
-        <v>361</v>
       </c>
       <c r="E140" t="s">
         <v>6</v>
@@ -5537,13 +5901,16 @@
         <v>7</v>
       </c>
       <c r="G140" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H140" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I140" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -5551,10 +5918,10 @@
         <v>66</v>
       </c>
       <c r="C141" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D141" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E141" t="s">
         <v>6</v>
@@ -5563,13 +5930,16 @@
         <v>7</v>
       </c>
       <c r="G141" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H141" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I141" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -5577,10 +5947,10 @@
         <v>50</v>
       </c>
       <c r="C142" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D142" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E142" t="s">
         <v>21</v>
@@ -5589,16 +5959,19 @@
         <v>7</v>
       </c>
       <c r="G142" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H142" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" t="s">
+        <v>380</v>
+      </c>
+      <c r="J142" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I142" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -5606,10 +5979,10 @@
         <v>43</v>
       </c>
       <c r="C143" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D143" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E143" t="s">
         <v>21</v>
@@ -5618,16 +5991,19 @@
         <v>7</v>
       </c>
       <c r="G143" t="s">
+        <v>393</v>
+      </c>
+      <c r="H143" t="s">
         <v>51</v>
       </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
+        <v>382</v>
+      </c>
+      <c r="J143" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="I143" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -5635,10 +6011,10 @@
         <v>2013</v>
       </c>
       <c r="C144" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D144" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E144" t="s">
         <v>21</v>
@@ -5647,16 +6023,19 @@
         <v>7</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H144" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144" t="s">
+        <v>384</v>
+      </c>
+      <c r="J144" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="I144" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -5664,10 +6043,10 @@
         <v>136</v>
       </c>
       <c r="C145" t="s">
+        <v>365</v>
+      </c>
+      <c r="D145" t="s">
         <v>366</v>
-      </c>
-      <c r="D145" t="s">
-        <v>367</v>
       </c>
       <c r="E145" t="s">
         <v>6</v>
@@ -5676,16 +6055,19 @@
         <v>7</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H145" t="s">
-        <v>385</v>
-      </c>
-      <c r="I145" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I145" t="s">
+        <v>384</v>
+      </c>
+      <c r="J145" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -5693,10 +6075,10 @@
         <v>191</v>
       </c>
       <c r="C146" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D146" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E146" t="s">
         <v>6</v>
@@ -5705,16 +6087,19 @@
         <v>7</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H146" t="s">
-        <v>385</v>
-      </c>
-      <c r="I146" s="5" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I146" t="s">
+        <v>384</v>
+      </c>
+      <c r="J146" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -5722,10 +6107,10 @@
         <v>338</v>
       </c>
       <c r="C147" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D147" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E147" t="s">
         <v>6</v>
@@ -5734,16 +6119,19 @@
         <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H147" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" t="s">
+        <v>388</v>
+      </c>
+      <c r="J147" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="I147" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -5751,10 +6139,10 @@
         <v>190</v>
       </c>
       <c r="C148" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D148" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E148" t="s">
         <v>6</v>
@@ -5763,16 +6151,19 @@
         <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="H148" t="s">
-        <v>389</v>
-      </c>
-      <c r="I148" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I148" t="s">
+        <v>388</v>
+      </c>
+      <c r="J148" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -5780,16 +6171,31 @@
         <v>268</v>
       </c>
       <c r="C149" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D149" t="s">
-        <v>367</v>
+        <v>366</v>
+      </c>
+      <c r="E149" t="s">
+        <v>6</v>
       </c>
       <c r="F149" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G149" t="s">
+        <v>393</v>
+      </c>
+      <c r="H149" t="s">
+        <v>12</v>
+      </c>
+      <c r="I149" t="s">
+        <v>391</v>
+      </c>
+      <c r="J149" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -5797,37 +6203,61 @@
         <v>371</v>
       </c>
       <c r="C150" t="s">
+        <v>371</v>
+      </c>
+      <c r="D150" t="s">
+        <v>366</v>
+      </c>
+      <c r="E150" t="s">
+        <v>21</v>
+      </c>
+      <c r="F150" t="s">
+        <v>40</v>
+      </c>
+      <c r="G150" t="s">
+        <v>393</v>
+      </c>
+      <c r="H150" t="s">
+        <v>12</v>
+      </c>
+      <c r="I150" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="4">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
         <v>372</v>
       </c>
-      <c r="D150" t="s">
-        <v>367</v>
-      </c>
-      <c r="F150" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B151" s="4">
-        <v>7</v>
-      </c>
-      <c r="C151" t="s">
-        <v>373</v>
-      </c>
       <c r="D151" t="s">
-        <v>367</v>
+        <v>366</v>
+      </c>
+      <c r="E151" t="s">
+        <v>21</v>
       </c>
       <c r="F151" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G151" t="s">
+        <v>393</v>
+      </c>
+      <c r="H151" t="s">
+        <v>12</v>
+      </c>
+      <c r="I151" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
-      <c r="I152" s="8"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="8"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -5847,8 +6277,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I134" r:id="rId1" xr:uid="{4213E806-E604-4AE2-8406-2DB17397E06E}"/>
-    <hyperlink ref="I135" r:id="rId2" xr:uid="{A42CB0AD-40C9-4576-B622-DF300ED56D10}"/>
+    <hyperlink ref="J134" r:id="rId1" xr:uid="{4213E806-E604-4AE2-8406-2DB17397E06E}"/>
+    <hyperlink ref="J135" r:id="rId2" xr:uid="{A42CB0AD-40C9-4576-B622-DF300ED56D10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
